--- a/data/nzd0550/nzd0550.xlsx
+++ b/data/nzd0550/nzd0550.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R459"/>
+  <dimension ref="A1:R465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24778,6 +24778,366 @@
         </is>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>298.541052631579</v>
+      </c>
+      <c r="C460" t="n">
+        <v>299.99</v>
+      </c>
+      <c r="D460" t="n">
+        <v>297.731052631579</v>
+      </c>
+      <c r="E460" t="n">
+        <v>296.7885714285715</v>
+      </c>
+      <c r="F460" t="n">
+        <v>290.7853846153847</v>
+      </c>
+      <c r="G460" t="n">
+        <v>290.26</v>
+      </c>
+      <c r="H460" t="n">
+        <v>287.06</v>
+      </c>
+      <c r="I460" t="n">
+        <v>279.9185714285715</v>
+      </c>
+      <c r="J460" t="n">
+        <v>277.75</v>
+      </c>
+      <c r="K460" t="n">
+        <v>271.208695652174</v>
+      </c>
+      <c r="L460" t="n">
+        <v>259.7805263157895</v>
+      </c>
+      <c r="M460" t="n">
+        <v>260.1086956521739</v>
+      </c>
+      <c r="N460" t="n">
+        <v>262.04</v>
+      </c>
+      <c r="O460" t="n">
+        <v>265.0385714285715</v>
+      </c>
+      <c r="P460" t="n">
+        <v>276.39</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>290.36</v>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>323.9084210526316</v>
+      </c>
+      <c r="C461" t="n">
+        <v>319.34</v>
+      </c>
+      <c r="D461" t="n">
+        <v>317.2684210526315</v>
+      </c>
+      <c r="E461" t="n">
+        <v>317.4609523809524</v>
+      </c>
+      <c r="F461" t="n">
+        <v>316.1107692307692</v>
+      </c>
+      <c r="G461" t="n">
+        <v>311.13</v>
+      </c>
+      <c r="H461" t="n">
+        <v>309.79</v>
+      </c>
+      <c r="I461" t="n">
+        <v>296.0109523809524</v>
+      </c>
+      <c r="J461" t="n">
+        <v>280.8833333333334</v>
+      </c>
+      <c r="K461" t="n">
+        <v>283.6573913043478</v>
+      </c>
+      <c r="L461" t="n">
+        <v>282.2442105263158</v>
+      </c>
+      <c r="M461" t="n">
+        <v>272.2473913043478</v>
+      </c>
+      <c r="N461" t="n">
+        <v>277.3081818181818</v>
+      </c>
+      <c r="O461" t="n">
+        <v>278.4209523809524</v>
+      </c>
+      <c r="P461" t="n">
+        <v>299.8333333333334</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>297.6766666666667</v>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:21:21+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>319.1268421052632</v>
+      </c>
+      <c r="C462" t="n">
+        <v>312.02</v>
+      </c>
+      <c r="D462" t="n">
+        <v>309.9168421052632</v>
+      </c>
+      <c r="E462" t="n">
+        <v>307.5071428571428</v>
+      </c>
+      <c r="F462" t="n">
+        <v>308.5769230769231</v>
+      </c>
+      <c r="G462" t="n">
+        <v>304.43</v>
+      </c>
+      <c r="H462" t="n">
+        <v>300.32</v>
+      </c>
+      <c r="I462" t="n">
+        <v>291.3771428571428</v>
+      </c>
+      <c r="J462" t="n">
+        <v>278.35</v>
+      </c>
+      <c r="K462" t="n">
+        <v>279.9965217391305</v>
+      </c>
+      <c r="L462" t="n">
+        <v>275.7284210526316</v>
+      </c>
+      <c r="M462" t="n">
+        <v>268.8465217391304</v>
+      </c>
+      <c r="N462" t="n">
+        <v>270.1190909090909</v>
+      </c>
+      <c r="O462" t="n">
+        <v>272.2271428571428</v>
+      </c>
+      <c r="P462" t="n">
+        <v>292.06</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>299.31</v>
+      </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:27:10+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>299.43</v>
+      </c>
+      <c r="C463" t="n">
+        <v>298.88</v>
+      </c>
+      <c r="D463" t="n">
+        <v>301.35</v>
+      </c>
+      <c r="E463" t="n">
+        <v>299.7009523809524</v>
+      </c>
+      <c r="F463" t="n">
+        <v>298.0969230769231</v>
+      </c>
+      <c r="G463" t="n">
+        <v>293.37</v>
+      </c>
+      <c r="H463" t="n">
+        <v>291.04</v>
+      </c>
+      <c r="I463" t="n">
+        <v>280.0709523809524</v>
+      </c>
+      <c r="J463" t="n">
+        <v>268.4633333333333</v>
+      </c>
+      <c r="K463" t="n">
+        <v>268.275652173913</v>
+      </c>
+      <c r="L463" t="n">
+        <v>267.61</v>
+      </c>
+      <c r="M463" t="n">
+        <v>259.6656521739131</v>
+      </c>
+      <c r="N463" t="n">
+        <v>265.6954545454545</v>
+      </c>
+      <c r="O463" t="n">
+        <v>268.0609523809524</v>
+      </c>
+      <c r="P463" t="n">
+        <v>284.1833333333333</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>293.3166666666667</v>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:27:00+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>304.7884210526316</v>
+      </c>
+      <c r="C464" t="n">
+        <v>303.59</v>
+      </c>
+      <c r="D464" t="n">
+        <v>299.0084210526315</v>
+      </c>
+      <c r="E464" t="n">
+        <v>299.5680952380952</v>
+      </c>
+      <c r="F464" t="n">
+        <v>300.44</v>
+      </c>
+      <c r="G464" t="n">
+        <v>297.88</v>
+      </c>
+      <c r="H464" t="n">
+        <v>293.4</v>
+      </c>
+      <c r="I464" t="n">
+        <v>282.0980952380953</v>
+      </c>
+      <c r="J464" t="n">
+        <v>273.5233333333334</v>
+      </c>
+      <c r="K464" t="n">
+        <v>264.1904347826087</v>
+      </c>
+      <c r="L464" t="n">
+        <v>261.4142105263158</v>
+      </c>
+      <c r="M464" t="n">
+        <v>257.5504347826087</v>
+      </c>
+      <c r="N464" t="n">
+        <v>263.8118181818182</v>
+      </c>
+      <c r="O464" t="n">
+        <v>272.9980952380952</v>
+      </c>
+      <c r="P464" t="n">
+        <v>283.1733333333333</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>293.4666666666667</v>
+      </c>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:21:18+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>304.7868421052632</v>
+      </c>
+      <c r="C465" t="n">
+        <v>298.91</v>
+      </c>
+      <c r="D465" t="n">
+        <v>299.4668421052632</v>
+      </c>
+      <c r="E465" t="n">
+        <v>296.807619047619</v>
+      </c>
+      <c r="F465" t="n">
+        <v>295.5653846153846</v>
+      </c>
+      <c r="G465" t="n">
+        <v>292.67</v>
+      </c>
+      <c r="H465" t="n">
+        <v>284.23</v>
+      </c>
+      <c r="I465" t="n">
+        <v>273.6476190476191</v>
+      </c>
+      <c r="J465" t="n">
+        <v>266.2066666666666</v>
+      </c>
+      <c r="K465" t="n">
+        <v>270.3943478260869</v>
+      </c>
+      <c r="L465" t="n">
+        <v>267.0784210526315</v>
+      </c>
+      <c r="M465" t="n">
+        <v>257.9443478260869</v>
+      </c>
+      <c r="N465" t="n">
+        <v>259.5218181818182</v>
+      </c>
+      <c r="O465" t="n">
+        <v>261.547619047619</v>
+      </c>
+      <c r="P465" t="n">
+        <v>279.7966666666667</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>285.9033333333333</v>
+      </c>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24789,7 +25149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29707,6 +30067,66 @@
       </c>
       <c r="B491" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -29875,28 +30295,28 @@
         <v>0.1413</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04175591999569057</v>
+        <v>0.004975853241052073</v>
       </c>
       <c r="J2" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K2" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003382307847918931</v>
+        <v>4.865096627115761e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>13.19345229513394</v>
+        <v>13.20572510546157</v>
       </c>
       <c r="N2" t="n">
-        <v>276.3324152812868</v>
+        <v>277.0959549843015</v>
       </c>
       <c r="O2" t="n">
-        <v>16.6232492395827</v>
+        <v>16.64619941561141</v>
       </c>
       <c r="P2" t="n">
-        <v>293.9467554256117</v>
+        <v>293.4810302360528</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -29952,28 +30372,28 @@
         <v>0.1999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1966372675259622</v>
+        <v>-0.1304384712520762</v>
       </c>
       <c r="J3" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K3" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003114794933849474</v>
+        <v>0.001403358216867878</v>
       </c>
       <c r="M3" t="n">
-        <v>20.77180066325302</v>
+        <v>20.70407376177253</v>
       </c>
       <c r="N3" t="n">
-        <v>623.7826543961753</v>
+        <v>620.623288981699</v>
       </c>
       <c r="O3" t="n">
-        <v>24.97564122092114</v>
+        <v>24.91231199591277</v>
       </c>
       <c r="P3" t="n">
-        <v>290.471952612926</v>
+        <v>289.784399061899</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -30029,28 +30449,28 @@
         <v>0.1725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5636210768171717</v>
+        <v>-0.5105549515884478</v>
       </c>
       <c r="J4" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K4" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03097613428947343</v>
+        <v>0.02620068971190515</v>
       </c>
       <c r="M4" t="n">
-        <v>15.79623073926255</v>
+        <v>15.67674348782259</v>
       </c>
       <c r="N4" t="n">
-        <v>517.2969868224598</v>
+        <v>513.5036408340526</v>
       </c>
       <c r="O4" t="n">
-        <v>22.74416379694931</v>
+        <v>22.66061872134238</v>
       </c>
       <c r="P4" t="n">
-        <v>302.4383077942089</v>
+        <v>301.905467820593</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -30106,28 +30526,28 @@
         <v>0.1486</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1896146660066738</v>
+        <v>-0.1762606619818383</v>
       </c>
       <c r="J5" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K5" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01496538677945569</v>
+        <v>0.01325007403538636</v>
       </c>
       <c r="M5" t="n">
-        <v>8.952634863253154</v>
+        <v>8.893273651650713</v>
       </c>
       <c r="N5" t="n">
-        <v>127.5088227539947</v>
+        <v>126.6921889259223</v>
       </c>
       <c r="O5" t="n">
-        <v>11.29198046199136</v>
+        <v>11.25576247643501</v>
       </c>
       <c r="P5" t="n">
-        <v>303.2508481331069</v>
+        <v>303.120216936432</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -30183,28 +30603,28 @@
         <v>0.179</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2891130261912046</v>
+        <v>-0.2728634778812035</v>
       </c>
       <c r="J6" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K6" t="n">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04284600156013341</v>
+        <v>0.03890627755483711</v>
       </c>
       <c r="M6" t="n">
-        <v>7.8190259534485</v>
+        <v>7.806422027119463</v>
       </c>
       <c r="N6" t="n">
-        <v>100.8179062897767</v>
+        <v>100.829226290376</v>
       </c>
       <c r="O6" t="n">
-        <v>10.04081203338538</v>
+        <v>10.04137571702085</v>
       </c>
       <c r="P6" t="n">
-        <v>303.3076881048537</v>
+        <v>303.1477225759306</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -30260,28 +30680,28 @@
         <v>0.1186</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3105154785180419</v>
+        <v>-0.3002602812011282</v>
       </c>
       <c r="J7" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K7" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06031493314170477</v>
+        <v>0.05763313522843383</v>
       </c>
       <c r="M7" t="n">
-        <v>7.236149024609054</v>
+        <v>7.215237588700898</v>
       </c>
       <c r="N7" t="n">
-        <v>81.30015758051039</v>
+        <v>81.04648168210579</v>
       </c>
       <c r="O7" t="n">
-        <v>9.016660001381354</v>
+        <v>9.002581945314677</v>
       </c>
       <c r="P7" t="n">
-        <v>302.7384257629865</v>
+        <v>302.6377037328718</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -30337,28 +30757,28 @@
         <v>0.1214</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4589410512390905</v>
+        <v>-0.4463753671771832</v>
       </c>
       <c r="J8" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K8" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08378598863839837</v>
+        <v>0.0811077927101872</v>
       </c>
       <c r="M8" t="n">
-        <v>8.41165936277946</v>
+        <v>8.384136945967652</v>
       </c>
       <c r="N8" t="n">
-        <v>123.2458211672363</v>
+        <v>122.7467936157642</v>
       </c>
       <c r="O8" t="n">
-        <v>11.10161344882969</v>
+        <v>11.07911520004031</v>
       </c>
       <c r="P8" t="n">
-        <v>301.7250421727694</v>
+        <v>301.6013574748854</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -30414,28 +30834,28 @@
         <v>0.1569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6407008888702831</v>
+        <v>-0.5956786558006959</v>
       </c>
       <c r="J9" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K9" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03503246097292367</v>
+        <v>0.03125078847670892</v>
       </c>
       <c r="M9" t="n">
-        <v>17.42059602341597</v>
+        <v>17.24862548116007</v>
       </c>
       <c r="N9" t="n">
-        <v>580.2137043849095</v>
+        <v>573.5228619338753</v>
       </c>
       <c r="O9" t="n">
-        <v>24.08762554476695</v>
+        <v>23.94833735218116</v>
       </c>
       <c r="P9" t="n">
-        <v>287.1019484960665</v>
+        <v>286.6336738194213</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -30491,28 +30911,28 @@
         <v>0.1096</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4924222329895477</v>
+        <v>-0.4518358993890392</v>
       </c>
       <c r="J10" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K10" t="n">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02012819338158833</v>
+        <v>0.01746203382992673</v>
       </c>
       <c r="M10" t="n">
-        <v>19.08889577717062</v>
+        <v>18.90713092072734</v>
       </c>
       <c r="N10" t="n">
-        <v>608.746853349515</v>
+        <v>601.0685958819091</v>
       </c>
       <c r="O10" t="n">
-        <v>24.6727958154222</v>
+        <v>24.51670034653744</v>
       </c>
       <c r="P10" t="n">
-        <v>274.2798672326296</v>
+        <v>273.8569660318452</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -30568,28 +30988,28 @@
         <v>0.1907</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4909353910320471</v>
+        <v>-0.4548546337756671</v>
       </c>
       <c r="J11" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K11" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02119523007819546</v>
+        <v>0.01873258132264066</v>
       </c>
       <c r="M11" t="n">
-        <v>17.81307165847337</v>
+        <v>17.61166836545584</v>
       </c>
       <c r="N11" t="n">
-        <v>581.1882659956403</v>
+        <v>573.7584837868162</v>
       </c>
       <c r="O11" t="n">
-        <v>24.10784656487676</v>
+        <v>23.95325622513182</v>
       </c>
       <c r="P11" t="n">
-        <v>274.2403623411338</v>
+        <v>273.8656969671558</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -30645,28 +31065,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4475880578807279</v>
+        <v>-0.4371757780542771</v>
       </c>
       <c r="J12" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K12" t="n">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03052838664781765</v>
+        <v>0.03001417898008307</v>
       </c>
       <c r="M12" t="n">
-        <v>12.61747007742074</v>
+        <v>12.50096432352946</v>
       </c>
       <c r="N12" t="n">
-        <v>337.6346872815089</v>
+        <v>333.1662891603521</v>
       </c>
       <c r="O12" t="n">
-        <v>18.37483842871847</v>
+        <v>18.25284331714793</v>
       </c>
       <c r="P12" t="n">
-        <v>277.0822326611441</v>
+        <v>276.9780147678576</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -30722,28 +31142,28 @@
         <v>0.1589</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.145135257981876</v>
+        <v>-0.1557937962857661</v>
       </c>
       <c r="J13" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K13" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005141248382432129</v>
+        <v>0.006085827625393225</v>
       </c>
       <c r="M13" t="n">
-        <v>10.92864279865708</v>
+        <v>10.86231211337556</v>
       </c>
       <c r="N13" t="n">
-        <v>217.5281298581191</v>
+        <v>214.7247404531253</v>
       </c>
       <c r="O13" t="n">
-        <v>14.74883486442638</v>
+        <v>14.65348901979066</v>
       </c>
       <c r="P13" t="n">
-        <v>269.9587751702317</v>
+        <v>270.0660209722506</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -30799,28 +31219,28 @@
         <v>0.1433</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2492442006994689</v>
+        <v>0.2400118218641796</v>
       </c>
       <c r="J14" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K14" t="n">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01740593327566098</v>
+        <v>0.01659351707748358</v>
       </c>
       <c r="M14" t="n">
-        <v>10.84204390443823</v>
+        <v>10.77087709111876</v>
       </c>
       <c r="N14" t="n">
-        <v>188.2511092767001</v>
+        <v>185.9250336024321</v>
       </c>
       <c r="O14" t="n">
-        <v>13.72046315824288</v>
+        <v>13.63543301851585</v>
       </c>
       <c r="P14" t="n">
-        <v>263.1682701850873</v>
+        <v>263.2610547016859</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -30876,28 +31296,28 @@
         <v>0.1312</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4464305807310177</v>
+        <v>0.4321505244120111</v>
       </c>
       <c r="J15" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K15" t="n">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0581820584683419</v>
+        <v>0.05610091239026416</v>
       </c>
       <c r="M15" t="n">
-        <v>10.55484234810355</v>
+        <v>10.48198284131366</v>
       </c>
       <c r="N15" t="n">
-        <v>174.7321807150532</v>
+        <v>172.6897032652234</v>
       </c>
       <c r="O15" t="n">
-        <v>13.2186300619638</v>
+        <v>13.14114543200947</v>
       </c>
       <c r="P15" t="n">
-        <v>263.0413282031973</v>
+        <v>263.1839477535353</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -30953,28 +31373,28 @@
         <v>0.0907</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5021756611008751</v>
+        <v>0.4947444864169953</v>
       </c>
       <c r="J16" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K16" t="n">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0614922057292776</v>
+        <v>0.06134336937078888</v>
       </c>
       <c r="M16" t="n">
-        <v>11.22685383416102</v>
+        <v>11.17098677182393</v>
       </c>
       <c r="N16" t="n">
-        <v>207.2361468992369</v>
+        <v>204.8815251517197</v>
       </c>
       <c r="O16" t="n">
-        <v>14.39569890277082</v>
+        <v>14.31368314417081</v>
       </c>
       <c r="P16" t="n">
-        <v>275.48108282671</v>
+        <v>275.5551205273918</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -31030,28 +31450,28 @@
         <v>0.0698</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4216078692233847</v>
+        <v>0.4151532033390675</v>
       </c>
       <c r="J17" t="n">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K17" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04775844647627836</v>
+        <v>0.0477220540816834</v>
       </c>
       <c r="M17" t="n">
-        <v>10.99695033791719</v>
+        <v>10.88805062438085</v>
       </c>
       <c r="N17" t="n">
-        <v>192.3732096679071</v>
+        <v>189.614468614507</v>
       </c>
       <c r="O17" t="n">
-        <v>13.86986696648195</v>
+        <v>13.7700569575622</v>
       </c>
       <c r="P17" t="n">
-        <v>284.7103377183474</v>
+        <v>284.7741210206894</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -31088,7 +31508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R459"/>
+  <dimension ref="A1:R465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66864,6 +67284,558 @@
         </is>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-46.600796842503286,168.82108552254704</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-46.6004991663267,168.82029759581138</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-46.600173262547585,168.8195353766595</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-46.59985737850325,168.81876403024307</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-46.59950296930381,168.8180277711323</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>-46.599190257081574,168.81725353310895</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>-46.59885718341839,168.81649783908506</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-46.59849410537664,168.8157694724865</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>-46.598168880136235,168.81500662762556</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>-46.597810367569075,168.81427410070256</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>-46.59741465447094,168.81357545660714</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>-46.59710843015752,168.81279530151582</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>-46.59681440714307,168.81200403115767</t>
+        </is>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>-46.596528506244354,168.8112053608034</t>
+        </is>
+      </c>
+      <c r="P460" t="inlineStr">
+        <is>
+          <t>-46.59630618479016,168.8103487755118</t>
+        </is>
+      </c>
+      <c r="Q460" t="inlineStr">
+        <is>
+          <t>-46.596103793016695,168.8094740332009</t>
+        </is>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:27:07+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-46.600989949054025,168.82090964574766</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-46.600646465610595,168.82016343806433</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-46.600321987495434,168.81939991935553</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-46.60001474283483,168.81862070302935</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-46.599695752859795,168.81785218282437</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-46.59934912437458,168.81710883478738</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-46.59903020870524,168.81634024422797</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>-46.59861660331314,168.815657898372</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>-46.5981927315069,168.81498490308968</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>-46.59790512836001,168.81418778906308</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>-46.597585649712514,168.81341970679048</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>-46.59720083042536,168.8127111387844</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>-46.596930628639775,168.81189816981436</t>
+        </is>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>-46.596630372537696,168.8111125741384</t>
+        </is>
+      </c>
+      <c r="P461" t="inlineStr">
+        <is>
+          <t>-46.59648463376157,168.81018622983427</t>
+        </is>
+      </c>
+      <c r="Q461" t="inlineStr">
+        <is>
+          <t>-46.596159486684726,168.80942330237752</t>
+        </is>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:21:21+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-46.60095354978755,168.82094279744373</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-46.60059074311248,168.82021418929975</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-46.600266024852914,168.8194508897209</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-46.5999389714932,168.8186897155918</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-46.59963840325433,168.81790441731948</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>-46.59929812243998,168.81715528810446</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>-46.59895812121014,168.816405903099</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>-46.598581329981236,168.81569002624957</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>-46.59817344742035,168.81500246760956</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>-46.597877261440736,168.81421317132492</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>-46.59753605106209,168.81346488350016</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>-46.597174942868826,168.8127347184868</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>-46.596875905248545,168.8119480151537</t>
+        </is>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>-46.59658322545128,168.81115551892714</t>
+        </is>
+      </c>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>-46.596425463735926,168.81024012680183</t>
+        </is>
+      </c>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>-46.596171919436166,168.8094119774867</t>
+        </is>
+      </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:27:10+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-46.60080360953143,168.82107935932717</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-46.60049071659475,168.82030529165954</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-46.60020081119304,168.81951028567886</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-46.59987954842874,168.81874383796898</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-46.59955862670949,168.81797707822614</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-46.599213931138365,168.8172319705487</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-46.59888747998941,168.81647024445934</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>-46.598495265326925,168.81576841597837</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>-46.59809818870499,168.8150710153373</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>-46.59778804092009,168.81429443658666</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>-46.597474253037454,168.81352117181055</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>-46.59710505769033,168.8127983733188</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>-46.59684223249667,168.81197868624838</t>
+        </is>
+      </c>
+      <c r="O463" t="inlineStr">
+        <is>
+          <t>-46.5965515125277,168.8111844051728</t>
+        </is>
+      </c>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t>-46.5963655071144,168.8102947401158</t>
+        </is>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t>-46.59612629884381,168.8094535328765</t>
+        </is>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:27:00+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-46.60084439999891,168.8210422084702</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-46.60052657085859,168.820272636287</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-46.60018298630669,168.8195265203783</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-46.59987853708004,168.81874475910155</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-46.59957646283835,168.81796083300716</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-46.59924826231836,168.81720070133548</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>-46.59890544478663,168.81645388180206</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>-46.59851069628945,168.81575436111459</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>-46.59813670615196,168.8150359326068</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>-46.59775694378973,168.8143227608936</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>-46.59742709020552,168.81356412964703</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>-46.59708895655765,168.8128130389873</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>-46.59682789424018,168.81199174634918</t>
+        </is>
+      </c>
+      <c r="O464" t="inlineStr">
+        <is>
+          <t>-46.59658909391798,168.81115017353167</t>
+        </is>
+      </c>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>-46.59635781906466,168.81030174299903</t>
+        </is>
+      </c>
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t>-46.59612744062748,168.809452492837</t>
+        </is>
+      </c>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:21:18+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-46.600844387979336,168.8210422194173</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-46.600490944965884,168.82030508366367</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-46.60018647596211,168.81952334204175</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-46.599857523499516,168.81876389818117</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-46.59953935595791,168.81799463009028</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-46.59920860257295,168.81723682385976</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-46.59883564087696,168.81651746037005</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>-46.59844636978771,168.8158129510565</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>-46.598081010630025,168.81508666157154</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>-46.59780416866444,168.8142797468814</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>-46.59747020661786,168.8135248574587</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>-46.597091955042146,168.8128103078275</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>-46.59679523871609,168.81202149082853</t>
+        </is>
+      </c>
+      <c r="O465" t="inlineStr">
+        <is>
+          <t>-46.596501933202184,168.81122956524396</t>
+        </is>
+      </c>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t>-46.596332116109224,168.81032515526377</t>
+        </is>
+      </c>
+      <c r="Q465" t="inlineStr">
+        <is>
+          <t>-46.596069869343566,168.80950493388255</t>
+        </is>
+      </c>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0550/nzd0550.xlsx
+++ b/data/nzd0550/nzd0550.xlsx
@@ -30140,7 +30140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30231,35 +30231,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -30318,27 +30323,28 @@
       <c r="P2" t="n">
         <v>293.4810302360528</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (168.82315526827188 -46.598524204849454, 168.81709095882204 -46.6051823082034)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>168.8231552682719</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.59852420484945</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>168.817090958822</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.6051823082034</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>168.820123113547</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.60185325652643</v>
       </c>
     </row>
@@ -30395,27 +30401,28 @@
       <c r="P3" t="n">
         <v>289.784399061899</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (168.82237739616392 -46.59821550904418, 168.81631304992132 -46.6048735943467)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>168.8223773961639</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.59821550904418</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>168.8163130499213</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.6048735943467</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>168.8193452230426</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.60154455169544</v>
       </c>
     </row>
@@ -30472,27 +30479,28 @@
       <c r="P4" t="n">
         <v>301.905467820593</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (168.82159952405527 -46.597906811480215, 168.81553514102205 -46.60456487873077)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>168.8215995240553</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.59790681148021</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>168.8155351410221</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.60456487873077</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>168.8185673325387</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.60123584510549</v>
       </c>
     </row>
@@ -30549,27 +30557,28 @@
       <c r="P5" t="n">
         <v>303.120216936432</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (168.82082165194606 -46.597598112157556, 168.81475723212395 -46.6042561613556)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>168.8208216519461</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.59759811215756</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>168.814757232124</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.6042561613556</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>168.817789442035</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.60092713675658</v>
       </c>
     </row>
@@ -30626,27 +30635,28 @@
       <c r="P6" t="n">
         <v>303.1477225759306</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (168.82004377983617 -46.597289411076225, 168.81397932322713 -46.60394744222117)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>168.8200437798362</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.59728941107623</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>168.8139793232271</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.60394744222117</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>168.8170115515317</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.60061842664869</v>
       </c>
     </row>
@@ -30703,27 +30713,28 @@
       <c r="P7" t="n">
         <v>302.6377037328718</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (168.81926590772562 -46.596980708236224, 168.81320141433167 -46.60363872132753)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>168.8192659077256</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.59698070823622</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>168.8132014143317</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.60363872132753</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>168.8162336610287</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.60030971478187</v>
       </c>
     </row>
@@ -30780,27 +30791,28 @@
       <c r="P8" t="n">
         <v>301.6013574748854</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (168.81848803561445 -46.59667200363752, 168.81242350543744 -46.60332999867461)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>168.8184880356145</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.59667200363752</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>168.8124235054374</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.60332999867461</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>168.8154557705259</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.60000100115607</v>
       </c>
     </row>
@@ -30857,27 +30869,28 @@
       <c r="P9" t="n">
         <v>286.6336738194213</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (168.81771016350262 -46.596363297280085, 168.81164559654448 -46.60302127426248)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>168.8177101635026</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.59636329728009</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>168.8116455965445</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.60302127426248</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>168.8146778800236</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.59969228577128</v>
       </c>
     </row>
@@ -30934,27 +30947,28 @@
       <c r="P10" t="n">
         <v>273.8569660318452</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (168.81693229139017 -46.596054589163984, 168.8108676876528 -46.60271254809113)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>168.8169322913902</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.59605458916398</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>168.8108676876528</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.60271254809113</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>168.8138999895215</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.59938356862756</v>
       </c>
     </row>
@@ -31011,27 +31025,28 @@
       <c r="P11" t="n">
         <v>273.8656969671558</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (168.81615441927707 -46.59574587928923, 168.8100897787624 -46.60240382016051)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>168.8161544192771</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-46.59574587928923</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>168.8100897787624</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-46.60240382016051</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>168.8131220990197</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-46.59907484972487</v>
       </c>
     </row>
@@ -31088,27 +31103,28 @@
       <c r="P12" t="n">
         <v>276.9780147678576</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (168.81537654716337 -46.595437167655774, 168.80931186987326 -46.60209509047066)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>168.8153765471634</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-46.59543716765577</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>168.8093118698733</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-46.60209509047066</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>168.8123442085183</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-46.59876612906322</v>
       </c>
     </row>
@@ -31165,27 +31181,28 @@
       <c r="P13" t="n">
         <v>270.0660209722506</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (168.81459867504904 -46.59512845426361, 168.80853396098544 -46.60178635902156)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>168.814598675049</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-46.59512845426361</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>168.8085339609854</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-46.60178635902156</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>168.8115663180172</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-46.59845740664258</v>
       </c>
     </row>
@@ -31242,27 +31259,28 @@
       <c r="P14" t="n">
         <v>263.2610547016859</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (168.81382080293398 -46.59481973911274, 168.80775605209888 -46.60147762581324)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>168.813820802934</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-46.59481973911274</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>168.8077560520989</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-46.60147762581324</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>168.8107884275164</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-46.59814868246299</v>
       </c>
     </row>
@@ -31319,27 +31337,28 @@
       <c r="P15" t="n">
         <v>263.1839477535353</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (168.81304293081834 -46.59451102220317, 168.80697814321363 -46.60116889084565)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>168.8130429308183</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-46.59451102220317</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>168.8069781432136</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-46.60116889084565</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>168.810010537016</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-46.59783995652441</v>
       </c>
     </row>
@@ -31396,27 +31415,28 @@
       <c r="P16" t="n">
         <v>275.5551205273918</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (168.812265058702 -46.59420230353492, 168.8062002343296 -46.60086015411883)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>168.812265058702</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-46.59420230353492</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>168.8062002343296</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-46.60086015411883</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>168.8092326465158</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-46.59753122882687</v>
       </c>
     </row>
@@ -31473,27 +31493,28 @@
       <c r="P17" t="n">
         <v>284.7741210206894</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (168.8114871865851 -46.593893583107985, 168.8054223254469 -46.60055141563275)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>168.8114871865851</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-46.59389358310798</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>168.8054223254469</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-46.60055141563275</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>168.808454756016</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-46.59722249937037</v>
       </c>
     </row>

--- a/data/nzd0550/nzd0550.xlsx
+++ b/data/nzd0550/nzd0550.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R465"/>
+  <dimension ref="A1:R471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25138,6 +25138,346 @@
         </is>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>300.0731578947368</v>
+      </c>
+      <c r="C466" t="n">
+        <v>292.63</v>
+      </c>
+      <c r="D466" t="n">
+        <v>298.8331578947368</v>
+      </c>
+      <c r="E466" t="n">
+        <v>299.9314285714286</v>
+      </c>
+      <c r="F466" t="n">
+        <v>296.3576923076923</v>
+      </c>
+      <c r="G466" t="n">
+        <v>295.86</v>
+      </c>
+      <c r="H466" t="n">
+        <v>295.31</v>
+      </c>
+      <c r="I466" t="n">
+        <v>280.8114285714286</v>
+      </c>
+      <c r="J466" t="n">
+        <v>270.48</v>
+      </c>
+      <c r="K466" t="n">
+        <v>267.44</v>
+      </c>
+      <c r="L466" t="n">
+        <v>263.6115789473685</v>
+      </c>
+      <c r="M466" t="n">
+        <v>264.01</v>
+      </c>
+      <c r="N466" t="n">
+        <v>265.9527272727273</v>
+      </c>
+      <c r="O466" t="n">
+        <v>270.8414285714285</v>
+      </c>
+      <c r="P466" t="n">
+        <v>290.86</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>300.45</v>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>280.9036842105263</v>
+      </c>
+      <c r="C467" t="n">
+        <v>287.3200000000001</v>
+      </c>
+      <c r="D467" t="n">
+        <v>294.1136842105263</v>
+      </c>
+      <c r="E467" t="n">
+        <v>298.3466666666667</v>
+      </c>
+      <c r="F467" t="n">
+        <v>294.1461538461539</v>
+      </c>
+      <c r="G467" t="n">
+        <v>290.67</v>
+      </c>
+      <c r="H467" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="I467" t="n">
+        <v>273.3066666666667</v>
+      </c>
+      <c r="J467" t="n">
+        <v>254.5033333333333</v>
+      </c>
+      <c r="K467" t="n">
+        <v>262.3321739130435</v>
+      </c>
+      <c r="L467" t="n">
+        <v>269.3168421052632</v>
+      </c>
+      <c r="M467" t="n">
+        <v>264.1721739130435</v>
+      </c>
+      <c r="N467" t="n">
+        <v>260.7518181818182</v>
+      </c>
+      <c r="O467" t="n">
+        <v>270.4266666666667</v>
+      </c>
+      <c r="P467" t="n">
+        <v>282.0033333333333</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>291.7066666666667</v>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>296.0421052631579</v>
+      </c>
+      <c r="C468" t="n">
+        <v>291.61</v>
+      </c>
+      <c r="D468" t="n">
+        <v>301.4621052631579</v>
+      </c>
+      <c r="E468" t="n">
+        <v>303.7209523809524</v>
+      </c>
+      <c r="F468" t="n">
+        <v>300.2484615384615</v>
+      </c>
+      <c r="G468" t="n">
+        <v>298.41</v>
+      </c>
+      <c r="H468" t="n">
+        <v>292.08</v>
+      </c>
+      <c r="I468" t="n">
+        <v>275.4309523809524</v>
+      </c>
+      <c r="J468" t="n">
+        <v>262.8233333333333</v>
+      </c>
+      <c r="K468" t="n">
+        <v>269.82</v>
+      </c>
+      <c r="L468" t="n">
+        <v>266.8810526315789</v>
+      </c>
+      <c r="M468" t="n">
+        <v>261.88</v>
+      </c>
+      <c r="N468" t="n">
+        <v>264.8818181818182</v>
+      </c>
+      <c r="O468" t="n">
+        <v>276.5609523809524</v>
+      </c>
+      <c r="P468" t="n">
+        <v>292.6033333333333</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>299.3666666666667</v>
+      </c>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:46+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>293.1326315789473</v>
+      </c>
+      <c r="C469" t="n">
+        <v>297.07</v>
+      </c>
+      <c r="D469" t="n">
+        <v>304.8226315789473</v>
+      </c>
+      <c r="E469" t="n">
+        <v>303.362380952381</v>
+      </c>
+      <c r="F469" t="n">
+        <v>300.9692307692308</v>
+      </c>
+      <c r="G469" t="n">
+        <v>298.69</v>
+      </c>
+      <c r="H469" t="n">
+        <v>298.7</v>
+      </c>
+      <c r="I469" t="n">
+        <v>284.822380952381</v>
+      </c>
+      <c r="J469" t="n">
+        <v>274.0733333333333</v>
+      </c>
+      <c r="K469" t="n">
+        <v>275.1495652173913</v>
+      </c>
+      <c r="L469" t="n">
+        <v>273.7963157894737</v>
+      </c>
+      <c r="M469" t="n">
+        <v>270.6395652173913</v>
+      </c>
+      <c r="N469" t="n">
+        <v>274.4590909090909</v>
+      </c>
+      <c r="O469" t="n">
+        <v>279.4723809523809</v>
+      </c>
+      <c r="P469" t="n">
+        <v>297.2133333333333</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>303.6466666666667</v>
+      </c>
+      <c r="R469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>284.2057894736842</v>
+      </c>
+      <c r="C470" t="n">
+        <v>266.58</v>
+      </c>
+      <c r="D470" t="n">
+        <v>259.5157894736842</v>
+      </c>
+      <c r="E470" t="n">
+        <v>286.8357142857143</v>
+      </c>
+      <c r="F470" t="n">
+        <v>280.6607692307692</v>
+      </c>
+      <c r="G470" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="H470" t="n">
+        <v>278.04</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>241.5508695652174</v>
+      </c>
+      <c r="L470" t="n">
+        <v>268.0078947368421</v>
+      </c>
+      <c r="M470" t="n">
+        <v>266.7308695652174</v>
+      </c>
+      <c r="N470" t="n">
+        <v>257.1427272727273</v>
+      </c>
+      <c r="O470" t="n">
+        <v>262.0057142857143</v>
+      </c>
+      <c r="P470" t="n">
+        <v>290.65</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>293.4</v>
+      </c>
+      <c r="R470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>288.1926315789473</v>
+      </c>
+      <c r="C471" t="n">
+        <v>268.22</v>
+      </c>
+      <c r="D471" t="n">
+        <v>275.0526315789473</v>
+      </c>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="n">
+        <v>287.3623076923077</v>
+      </c>
+      <c r="G471" t="n">
+        <v>285.87</v>
+      </c>
+      <c r="H471" t="n">
+        <v>275.01</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>410.06</v>
+      </c>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
+      <c r="M471" t="inlineStr"/>
+      <c r="N471" t="n">
+        <v>264.8536363636364</v>
+      </c>
+      <c r="O471" t="inlineStr"/>
+      <c r="P471" t="inlineStr"/>
+      <c r="Q471" t="inlineStr"/>
+      <c r="R471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25149,7 +25489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B497"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30127,6 +30467,66 @@
       </c>
       <c r="B497" t="n">
         <v>-0.31</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -30300,28 +30700,28 @@
         <v>0.1413</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004975853241052073</v>
+        <v>-0.004430420182600087</v>
       </c>
       <c r="J2" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K2" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L2" t="n">
-        <v>4.865096627115761e-06</v>
+        <v>3.966410644040685e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>13.20572510546157</v>
+        <v>13.09780252759457</v>
       </c>
       <c r="N2" t="n">
-        <v>277.0959549843015</v>
+        <v>273.5555776722401</v>
       </c>
       <c r="O2" t="n">
-        <v>16.64619941561141</v>
+        <v>16.53951564200839</v>
       </c>
       <c r="P2" t="n">
-        <v>293.4810302360528</v>
+        <v>293.5762606908192</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30378,28 +30778,28 @@
         <v>0.1999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1304384712520762</v>
+        <v>-0.1387301266719371</v>
       </c>
       <c r="J3" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K3" t="n">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001403358216867878</v>
+        <v>0.001634400265387193</v>
       </c>
       <c r="M3" t="n">
-        <v>20.70407376177253</v>
+        <v>20.53378458431839</v>
       </c>
       <c r="N3" t="n">
-        <v>620.623288981699</v>
+        <v>612.7197627331481</v>
       </c>
       <c r="O3" t="n">
-        <v>24.91231199591277</v>
+        <v>24.75317682102942</v>
       </c>
       <c r="P3" t="n">
-        <v>289.784399061899</v>
+        <v>289.8723743834669</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30456,28 +30856,28 @@
         <v>0.1725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5105549515884478</v>
+        <v>-0.510068334906513</v>
       </c>
       <c r="J4" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K4" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02620068971190515</v>
+        <v>0.02681795254516062</v>
       </c>
       <c r="M4" t="n">
-        <v>15.67674348782259</v>
+        <v>15.65568968934841</v>
       </c>
       <c r="N4" t="n">
-        <v>513.5036408340526</v>
+        <v>509.3363397182194</v>
       </c>
       <c r="O4" t="n">
-        <v>22.66061872134238</v>
+        <v>22.56848111234381</v>
       </c>
       <c r="P4" t="n">
-        <v>301.905467820593</v>
+        <v>301.9014293921177</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30534,28 +30934,28 @@
         <v>0.1486</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1762606619818383</v>
+        <v>-0.1766476856497798</v>
       </c>
       <c r="J5" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K5" t="n">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01325007403538636</v>
+        <v>0.01360387173737132</v>
       </c>
       <c r="M5" t="n">
-        <v>8.893273651650713</v>
+        <v>8.839605506171692</v>
       </c>
       <c r="N5" t="n">
-        <v>126.6921889259223</v>
+        <v>125.5636716223124</v>
       </c>
       <c r="O5" t="n">
-        <v>11.25576247643501</v>
+        <v>11.2055196944324</v>
       </c>
       <c r="P5" t="n">
-        <v>303.120216936432</v>
+        <v>303.1242513771929</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30612,28 +31012,28 @@
         <v>0.179</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2728634778812035</v>
+        <v>-0.2809035113525798</v>
       </c>
       <c r="J6" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K6" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03890627755483711</v>
+        <v>0.04198550922696775</v>
       </c>
       <c r="M6" t="n">
-        <v>7.806422027119463</v>
+        <v>7.781149149081879</v>
       </c>
       <c r="N6" t="n">
-        <v>100.829226290376</v>
+        <v>100.2087105217733</v>
       </c>
       <c r="O6" t="n">
-        <v>10.04137571702085</v>
+        <v>10.01043008675318</v>
       </c>
       <c r="P6" t="n">
-        <v>303.1477225759306</v>
+        <v>303.2282917846229</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30690,28 +31090,28 @@
         <v>0.1186</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3002602812011282</v>
+        <v>-0.3098200581220925</v>
       </c>
       <c r="J7" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K7" t="n">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05763313522843383</v>
+        <v>0.06231080017280854</v>
       </c>
       <c r="M7" t="n">
-        <v>7.215237588700898</v>
+        <v>7.2004067536729</v>
       </c>
       <c r="N7" t="n">
-        <v>81.04648168210579</v>
+        <v>80.65911478454521</v>
       </c>
       <c r="O7" t="n">
-        <v>9.002581945314677</v>
+        <v>8.981041965414994</v>
       </c>
       <c r="P7" t="n">
-        <v>302.6377037328718</v>
+        <v>302.7332796277014</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30768,28 +31168,28 @@
         <v>0.1214</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4463753671771832</v>
+        <v>-0.4535303623385449</v>
       </c>
       <c r="J8" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K8" t="n">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0811077927101872</v>
+        <v>0.08513660109095234</v>
       </c>
       <c r="M8" t="n">
-        <v>8.384136945967652</v>
+        <v>8.378517172326672</v>
       </c>
       <c r="N8" t="n">
-        <v>122.7467936157642</v>
+        <v>122.1128883552527</v>
       </c>
       <c r="O8" t="n">
-        <v>11.07911520004031</v>
+        <v>11.05047005132599</v>
       </c>
       <c r="P8" t="n">
-        <v>301.6013574748854</v>
+        <v>301.6732572223088</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30846,28 +31246,28 @@
         <v>0.1569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5956786558006959</v>
+        <v>-0.5791437473894503</v>
       </c>
       <c r="J9" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K9" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03125078847670892</v>
+        <v>0.03020802628512476</v>
       </c>
       <c r="M9" t="n">
-        <v>17.24862548116007</v>
+        <v>17.09387859507018</v>
       </c>
       <c r="N9" t="n">
-        <v>573.5228619338753</v>
+        <v>567.4015667577956</v>
       </c>
       <c r="O9" t="n">
-        <v>23.94833735218116</v>
+        <v>23.82019241647296</v>
       </c>
       <c r="P9" t="n">
-        <v>286.6336738194213</v>
+        <v>286.4594893590623</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30924,28 +31324,28 @@
         <v>0.1096</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4518358993890392</v>
+        <v>-0.3652728586358494</v>
       </c>
       <c r="J10" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K10" t="n">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01746203382992673</v>
+        <v>0.01065321515933093</v>
       </c>
       <c r="M10" t="n">
-        <v>18.90713092072734</v>
+        <v>19.01939184723563</v>
       </c>
       <c r="N10" t="n">
-        <v>601.0685958819091</v>
+        <v>656.2123448793539</v>
       </c>
       <c r="O10" t="n">
-        <v>24.51670034653744</v>
+        <v>25.61664195165623</v>
       </c>
       <c r="P10" t="n">
-        <v>273.8569660318452</v>
+        <v>272.9393680447197</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31002,28 +31402,28 @@
         <v>0.1907</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4548546337756671</v>
+        <v>-0.4520387542123995</v>
       </c>
       <c r="J11" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K11" t="n">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01873258132264066</v>
+        <v>0.018922615746644</v>
       </c>
       <c r="M11" t="n">
-        <v>17.61166836545584</v>
+        <v>17.48346853337194</v>
       </c>
       <c r="N11" t="n">
-        <v>573.7584837868162</v>
+        <v>567.3350271014624</v>
       </c>
       <c r="O11" t="n">
-        <v>23.95325622513182</v>
+        <v>23.81879566857784</v>
       </c>
       <c r="P11" t="n">
-        <v>273.8656969671558</v>
+        <v>273.8365060961754</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31080,28 +31480,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4371757780542771</v>
+        <v>-0.4304447094127034</v>
       </c>
       <c r="J12" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K12" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03001417898008307</v>
+        <v>0.02988434301152154</v>
       </c>
       <c r="M12" t="n">
-        <v>12.50096432352946</v>
+        <v>12.3647090390828</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1662891603521</v>
+        <v>328.8070386456072</v>
       </c>
       <c r="O12" t="n">
-        <v>18.25284331714793</v>
+        <v>18.13303721513876</v>
       </c>
       <c r="P12" t="n">
-        <v>276.9780147678576</v>
+        <v>276.9096532753232</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31158,28 +31558,28 @@
         <v>0.1589</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1557937962857661</v>
+        <v>-0.1571916019281068</v>
       </c>
       <c r="J13" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K13" t="n">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006085827625393225</v>
+        <v>0.006351815935858984</v>
       </c>
       <c r="M13" t="n">
-        <v>10.86231211337556</v>
+        <v>10.75439757029537</v>
       </c>
       <c r="N13" t="n">
-        <v>214.7247404531253</v>
+        <v>211.9934026586351</v>
       </c>
       <c r="O13" t="n">
-        <v>14.65348901979066</v>
+        <v>14.55999322316584</v>
       </c>
       <c r="P13" t="n">
-        <v>270.0660209722506</v>
+        <v>270.0801853496232</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31236,28 +31636,28 @@
         <v>0.1433</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2400118218641796</v>
+        <v>0.2261642408973979</v>
       </c>
       <c r="J14" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K14" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01659351707748358</v>
+        <v>0.01514408543624801</v>
       </c>
       <c r="M14" t="n">
-        <v>10.77087709111876</v>
+        <v>10.71283181846446</v>
       </c>
       <c r="N14" t="n">
-        <v>185.9250336024321</v>
+        <v>183.7729525675403</v>
       </c>
       <c r="O14" t="n">
-        <v>13.63543301851585</v>
+        <v>13.55628830349739</v>
       </c>
       <c r="P14" t="n">
-        <v>263.2610547016859</v>
+        <v>263.4019166824567</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31314,28 +31714,28 @@
         <v>0.1312</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4321505244120111</v>
+        <v>0.426044235217875</v>
       </c>
       <c r="J15" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K15" t="n">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05610091239026416</v>
+        <v>0.05578798885843783</v>
       </c>
       <c r="M15" t="n">
-        <v>10.48198284131366</v>
+        <v>10.4138512172273</v>
       </c>
       <c r="N15" t="n">
-        <v>172.6897032652234</v>
+        <v>170.9026997920599</v>
       </c>
       <c r="O15" t="n">
-        <v>13.14114543200947</v>
+        <v>13.07297593480765</v>
       </c>
       <c r="P15" t="n">
-        <v>263.1839477535353</v>
+        <v>263.2458389290724</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31392,28 +31792,28 @@
         <v>0.0907</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4947444864169953</v>
+        <v>0.5008377840901735</v>
       </c>
       <c r="J16" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K16" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06134336937078888</v>
+        <v>0.06425086227710608</v>
       </c>
       <c r="M16" t="n">
-        <v>11.17098677182393</v>
+        <v>11.07780550977235</v>
       </c>
       <c r="N16" t="n">
-        <v>204.8815251517197</v>
+        <v>202.4623772814146</v>
       </c>
       <c r="O16" t="n">
-        <v>14.31368314417081</v>
+        <v>14.22892748176807</v>
       </c>
       <c r="P16" t="n">
-        <v>275.5551205273918</v>
+        <v>275.4936941532785</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31470,28 +31870,28 @@
         <v>0.0698</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4151532033390675</v>
+        <v>0.420768556928854</v>
       </c>
       <c r="J17" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K17" t="n">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0477220540816834</v>
+        <v>0.05012015883553167</v>
       </c>
       <c r="M17" t="n">
-        <v>10.88805062438085</v>
+        <v>10.80005082908943</v>
       </c>
       <c r="N17" t="n">
-        <v>189.614468614507</v>
+        <v>187.3953726909783</v>
       </c>
       <c r="O17" t="n">
-        <v>13.7700569575622</v>
+        <v>13.68924295536383</v>
       </c>
       <c r="P17" t="n">
-        <v>284.7741210206894</v>
+        <v>284.7180654871807</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31529,7 +31929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R465"/>
+  <dimension ref="A1:R471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67857,6 +68257,518 @@
         </is>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-46.6008085055101,168.82107490020564</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-46.60044313926387,168.82034862409205</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-46.60018165214449,168.8195277355172</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-46.59988130288309,168.8187422400185</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-46.59954538721748,168.81798913680083</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-46.59923288560483,168.81721470662004</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-46.598919984090855,168.8164406391349</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>-46.59850090196017,168.81576328200867</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>-46.5981135398629,168.81505703309577</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>-46.59778167984322,168.81430023047164</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>-46.59744381674721,168.8135488944394</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>-46.59713812706014,168.81276825214815</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>-46.59684419085879,168.81197690245992</t>
+        </is>
+      </c>
+      <c r="O466" t="inlineStr">
+        <is>
+          <t>-46.59657267743444,168.811165126769</t>
+        </is>
+      </c>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>-46.59641632942398,168.81024844707773</t>
+        </is>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>-46.59618059698844,168.80940407317195</t>
+        </is>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01 22:26:38+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-46.600662579616454,168.82120780502805</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-46.600402717548434,168.82038543926558</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-46.600145725915176,168.8195604566669</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-46.59986923919642,168.81875322757665</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-46.59952855239024,168.81800447000853</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-46.599193378098995,168.8172506904574</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-46.59885520424513,168.81649964174792</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-46.598443774397865,168.81581531498895</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>-46.59799192311395,168.8151678045823</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>-46.59774279849804,168.81433564488512</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>-46.597487245649155,168.8135093375919</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>-46.597139361535035,168.81276712772822</t>
+        </is>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>-46.59680460148966,168.81201296269484</t>
+        </is>
+      </c>
+      <c r="O467" t="inlineStr">
+        <is>
+          <t>-46.59656952027869,168.8111680025175</t>
+        </is>
+      </c>
+      <c r="P467" t="inlineStr">
+        <is>
+          <t>-46.596348913105416,168.8103098552473</t>
+        </is>
+      </c>
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>-46.59611404369834,168.80946469596398</t>
+        </is>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:50+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-46.600777819499655,168.82110284815602</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-46.600435374641634,168.82035569593765</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-46.60020166457593,168.8195095084273</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-46.59991014987886,168.818715966264</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-46.59957500479641,168.81796216099823</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-46.59925229680227,168.81719702668028</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-46.59889539668004,168.8164630337982</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-46.59845994483567,168.81580058662945</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>-46.59805525619981,168.81511011934833</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>-46.59779979666584,168.81428372904946</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>-46.59746870423431,168.81352622589228</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>-46.597121913406106,168.8127830203289</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>-46.596836039089766,168.81198432755724</t>
+        </is>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>-46.59661621427725,168.81112547045956</t>
+        </is>
+      </c>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>-46.59642959954913,168.8102363595649</t>
+        </is>
+      </c>
+      <c r="Q468" t="inlineStr">
+        <is>
+          <t>-46.5961723507765,168.8094115845822</t>
+        </is>
+      </c>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:46+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-46.600755671398886,168.8211230199951</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-46.600476938201695,168.82031784074</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-46.60022724602739,168.81948620911416</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-46.59990742032552,168.81871845233422</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-46.599580491484275,168.8179571636982</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-46.59925442822768,168.81719508535278</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-46.598945789448365,168.81641713511607</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>-46.59853143402098,168.81573547271182</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>-46.59814089283023,168.8150321192635</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>-46.59784036589422,168.81424677715742</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>-46.59752134373612,168.81347827958257</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>-46.597188591588946,168.81272228654225</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>-46.596908941350435,168.8119179239103</t>
+        </is>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>-46.596638375977555,168.81110528404906</t>
+        </is>
+      </c>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>-46.59646469052297,168.81020439580678</t>
+        </is>
+      </c>
+      <c r="Q469" t="inlineStr">
+        <is>
+          <t>-46.596204929653545,168.8093819087201</t>
+        </is>
+      </c>
+      <c r="R469" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-46.60068771660856,168.82118491109154</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-46.600244836741666,168.8205292328329</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-46.59988235470824,168.81980033013073</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-46.59978161431015,168.81883303579266</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-46.5994258979533,168.8180979676983</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-46.59911443916995,168.81732258863852</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>-46.598788521311484,168.81656037754212</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>-46.597584608745564,168.81447972868042</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>-46.59747728184252,168.8135184130478</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>-46.59715883843613,168.81274938720847</t>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>-46.59677712904773,168.81203798610883</t>
+        </is>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>-46.596505420212004,168.81122638905222</t>
+        </is>
+      </c>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t>-46.59641473091933,168.8102499031257</t>
+        </is>
+      </c>
+      <c r="Q470" t="inlineStr">
+        <is>
+          <t>-46.59612693316807,168.80945295507675</t>
+        </is>
+      </c>
+      <c r="R470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-46.60071806609378,168.8211572697542</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-46.60025732105617,168.82051786249522</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-46.60000062662654,168.8196926106883</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-46.59947691190864,168.81805150422903</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>-46.59915683935345,168.81728397025927</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>-46.59876545631536,168.81658138543537</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>-46.5991760381155,168.81408925741275</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
+      <c r="M471" t="inlineStr"/>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>-46.59683582456952,168.81198452295453</t>
+        </is>
+      </c>
+      <c r="O471" t="inlineStr"/>
+      <c r="P471" t="inlineStr"/>
+      <c r="Q471" t="inlineStr"/>
+      <c r="R471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0550/nzd0550.xlsx
+++ b/data/nzd0550/nzd0550.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R471"/>
+  <dimension ref="A1:R472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25460,9 +25460,7 @@
         <v>275.01</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>410.06</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr"/>
       <c r="M471" t="inlineStr"/>
@@ -25473,6 +25471,64 @@
       <c r="P471" t="inlineStr"/>
       <c r="Q471" t="inlineStr"/>
       <c r="R471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>311.3663157894737</v>
+      </c>
+      <c r="C472" t="n">
+        <v>295.1</v>
+      </c>
+      <c r="D472" t="n">
+        <v>272.5863157894737</v>
+      </c>
+      <c r="E472" t="n">
+        <v>288.3852380952381</v>
+      </c>
+      <c r="F472" t="n">
+        <v>287.8776923076923</v>
+      </c>
+      <c r="G472" t="n">
+        <v>284.96</v>
+      </c>
+      <c r="H472" t="n">
+        <v>283.07</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>255.1433333333333</v>
+      </c>
+      <c r="K472" t="n">
+        <v>252.6691304347826</v>
+      </c>
+      <c r="L472" t="n">
+        <v>254.9231578947368</v>
+      </c>
+      <c r="M472" t="n">
+        <v>260.7891304347826</v>
+      </c>
+      <c r="N472" t="n">
+        <v>269.009090909091</v>
+      </c>
+      <c r="O472" t="n">
+        <v>275.6652380952381</v>
+      </c>
+      <c r="P472" t="n">
+        <v>285.1733333333333</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>298.2666666666667</v>
+      </c>
+      <c r="R472" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25489,7 +25545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B503"/>
+  <dimension ref="A1:B504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30527,6 +30583,16 @@
       </c>
       <c r="B503" t="n">
         <v>0.48</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -30700,28 +30766,28 @@
         <v>0.1413</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.004430420182600087</v>
+        <v>0.004368113756867283</v>
       </c>
       <c r="J2" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K2" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L2" t="n">
-        <v>3.966410644040685e-06</v>
+        <v>3.863455137587124e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>13.09780252759457</v>
+        <v>13.10628971934161</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5555776722401</v>
+        <v>273.6731133492041</v>
       </c>
       <c r="O2" t="n">
-        <v>16.53951564200839</v>
+        <v>16.54306843814666</v>
       </c>
       <c r="P2" t="n">
-        <v>293.5762606908192</v>
+        <v>293.4869081424141</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30778,28 +30844,28 @@
         <v>0.1999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1387301266719371</v>
+        <v>-0.1339738948204178</v>
       </c>
       <c r="J3" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K3" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001634400265387193</v>
+        <v>0.001532245184925229</v>
       </c>
       <c r="M3" t="n">
-        <v>20.53378458431839</v>
+        <v>20.49675385168721</v>
       </c>
       <c r="N3" t="n">
-        <v>612.7197627331481</v>
+        <v>611.2234265740095</v>
       </c>
       <c r="O3" t="n">
-        <v>24.75317682102942</v>
+        <v>24.72293321137299</v>
       </c>
       <c r="P3" t="n">
-        <v>289.8723743834669</v>
+        <v>289.8220868905458</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30856,28 +30922,28 @@
         <v>0.1725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.510068334906513</v>
+        <v>-0.5187420339637503</v>
       </c>
       <c r="J4" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K4" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02681795254516062</v>
+        <v>0.02782655402725553</v>
       </c>
       <c r="M4" t="n">
-        <v>15.65568968934841</v>
+        <v>15.67677249078871</v>
       </c>
       <c r="N4" t="n">
-        <v>509.3363397182194</v>
+        <v>508.6364138396535</v>
       </c>
       <c r="O4" t="n">
-        <v>22.56848111234381</v>
+        <v>22.55296906927453</v>
       </c>
       <c r="P4" t="n">
-        <v>301.9014293921177</v>
+        <v>301.9900879912306</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30934,28 +31000,28 @@
         <v>0.1486</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1766476856497798</v>
+        <v>-0.1815730082354258</v>
       </c>
       <c r="J5" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K5" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01360387173737132</v>
+        <v>0.01440601864977253</v>
       </c>
       <c r="M5" t="n">
-        <v>8.839605506171692</v>
+        <v>8.845827328604235</v>
       </c>
       <c r="N5" t="n">
-        <v>125.5636716223124</v>
+        <v>125.5058012467718</v>
       </c>
       <c r="O5" t="n">
-        <v>11.2055196944324</v>
+        <v>11.20293717052683</v>
       </c>
       <c r="P5" t="n">
-        <v>303.1242513771929</v>
+        <v>303.1733834943348</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31012,28 +31078,28 @@
         <v>0.179</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2809035113525798</v>
+        <v>-0.2847103198290716</v>
       </c>
       <c r="J6" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K6" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04198550922696775</v>
+        <v>0.04321982775413546</v>
       </c>
       <c r="M6" t="n">
-        <v>7.781149149081879</v>
+        <v>7.783615133661217</v>
       </c>
       <c r="N6" t="n">
-        <v>100.2087105217733</v>
+        <v>100.1206140152035</v>
       </c>
       <c r="O6" t="n">
-        <v>10.01043008675318</v>
+        <v>10.00602888338843</v>
       </c>
       <c r="P6" t="n">
-        <v>303.2282917846229</v>
+        <v>303.266478266244</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31090,28 +31156,28 @@
         <v>0.1186</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3098200581220925</v>
+        <v>-0.3145517335038015</v>
       </c>
       <c r="J7" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K7" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06231080017280854</v>
+        <v>0.06423036777198554</v>
       </c>
       <c r="M7" t="n">
-        <v>7.2004067536729</v>
+        <v>7.208770009714125</v>
       </c>
       <c r="N7" t="n">
-        <v>80.65911478454521</v>
+        <v>80.69524370319307</v>
       </c>
       <c r="O7" t="n">
-        <v>8.981041965414994</v>
+        <v>8.983053139283607</v>
       </c>
       <c r="P7" t="n">
-        <v>302.7332796277014</v>
+        <v>302.7806697981981</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31168,28 +31234,28 @@
         <v>0.1214</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4535303623385449</v>
+        <v>-0.4568441924584387</v>
       </c>
       <c r="J8" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K8" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08513660109095234</v>
+        <v>0.08660436007453665</v>
       </c>
       <c r="M8" t="n">
-        <v>8.378517172326672</v>
+        <v>8.376900542030537</v>
       </c>
       <c r="N8" t="n">
-        <v>122.1128883552527</v>
+        <v>121.9231999647685</v>
       </c>
       <c r="O8" t="n">
-        <v>11.05047005132599</v>
+        <v>11.04188389563884</v>
       </c>
       <c r="P8" t="n">
-        <v>301.6732572223088</v>
+        <v>301.7065241270226</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31249,7 +31315,7 @@
         <v>-0.5791437473894503</v>
       </c>
       <c r="J9" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K9" t="n">
         <v>328</v>
@@ -31324,28 +31390,28 @@
         <v>0.1096</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3652728586358494</v>
+        <v>-0.4487340993157312</v>
       </c>
       <c r="J10" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K10" t="n">
         <v>343</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01065321515933093</v>
+        <v>0.01765947377047172</v>
       </c>
       <c r="M10" t="n">
-        <v>19.01939184723563</v>
+        <v>18.7301809715922</v>
       </c>
       <c r="N10" t="n">
-        <v>656.2123448793539</v>
+        <v>593.2322223004268</v>
       </c>
       <c r="O10" t="n">
-        <v>25.61664195165623</v>
+        <v>24.35635897051172</v>
       </c>
       <c r="P10" t="n">
-        <v>272.9393680447197</v>
+        <v>273.8244781746175</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31402,28 +31468,28 @@
         <v>0.1907</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4520387542123995</v>
+        <v>-0.4570679242192002</v>
       </c>
       <c r="J11" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K11" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L11" t="n">
-        <v>0.018922615746644</v>
+        <v>0.01942769842613723</v>
       </c>
       <c r="M11" t="n">
-        <v>17.48346853337194</v>
+        <v>17.47144586590251</v>
       </c>
       <c r="N11" t="n">
-        <v>567.3350271014624</v>
+        <v>565.9370432086778</v>
       </c>
       <c r="O11" t="n">
-        <v>23.81879566857784</v>
+        <v>23.78943133428535</v>
       </c>
       <c r="P11" t="n">
-        <v>273.8365060961754</v>
+        <v>273.889803646401</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31480,28 +31546,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4304447094127034</v>
+        <v>-0.4360871283997583</v>
       </c>
       <c r="J12" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K12" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02988434301152154</v>
+        <v>0.03078025294069631</v>
       </c>
       <c r="M12" t="n">
-        <v>12.3647090390828</v>
+        <v>12.369619659312</v>
       </c>
       <c r="N12" t="n">
-        <v>328.8070386456072</v>
+        <v>328.2235871028026</v>
       </c>
       <c r="O12" t="n">
-        <v>18.13303721513876</v>
+        <v>18.11694199093221</v>
       </c>
       <c r="P12" t="n">
-        <v>276.9096532753232</v>
+        <v>276.9672414873227</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31558,28 +31624,28 @@
         <v>0.1589</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1571916019281068</v>
+        <v>-0.1597793654185221</v>
       </c>
       <c r="J13" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K13" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006351815935858984</v>
+        <v>0.006592411401953768</v>
       </c>
       <c r="M13" t="n">
-        <v>10.75439757029537</v>
+        <v>10.74134741463143</v>
       </c>
       <c r="N13" t="n">
-        <v>211.9934026586351</v>
+        <v>211.5030348648798</v>
       </c>
       <c r="O13" t="n">
-        <v>14.55999322316584</v>
+        <v>14.54314391267857</v>
       </c>
       <c r="P13" t="n">
-        <v>270.0801853496232</v>
+        <v>270.1066515448759</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31636,28 +31702,28 @@
         <v>0.1433</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2261642408973979</v>
+        <v>0.2260488572825194</v>
       </c>
       <c r="J14" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K14" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01514408543624801</v>
+        <v>0.01520303821995928</v>
       </c>
       <c r="M14" t="n">
-        <v>10.71283181846446</v>
+        <v>10.68535127689924</v>
       </c>
       <c r="N14" t="n">
-        <v>183.7729525675403</v>
+        <v>183.2894876068468</v>
       </c>
       <c r="O14" t="n">
-        <v>13.55628830349739</v>
+        <v>13.5384448001551</v>
       </c>
       <c r="P14" t="n">
-        <v>263.4019166824567</v>
+        <v>263.4030956537283</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31714,28 +31780,28 @@
         <v>0.1312</v>
       </c>
       <c r="I15" t="n">
-        <v>0.426044235217875</v>
+        <v>0.4267471315181042</v>
       </c>
       <c r="J15" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K15" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05578798885843783</v>
+        <v>0.0562316789346009</v>
       </c>
       <c r="M15" t="n">
-        <v>10.4138512172273</v>
+        <v>10.38908242258667</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9026997920599</v>
+        <v>170.442385572913</v>
       </c>
       <c r="O15" t="n">
-        <v>13.07297593480765</v>
+        <v>13.05535850035965</v>
       </c>
       <c r="P15" t="n">
-        <v>263.2458389290724</v>
+        <v>263.2386897191965</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31792,28 +31858,28 @@
         <v>0.0907</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5008377840901735</v>
+        <v>0.4991637448122243</v>
       </c>
       <c r="J16" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K16" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06425086227710608</v>
+        <v>0.0641602422602261</v>
       </c>
       <c r="M16" t="n">
-        <v>11.07780550977235</v>
+        <v>11.05786429895196</v>
       </c>
       <c r="N16" t="n">
-        <v>202.4623772814146</v>
+        <v>201.9337541531922</v>
       </c>
       <c r="O16" t="n">
-        <v>14.22892748176807</v>
+        <v>14.21033969168901</v>
       </c>
       <c r="P16" t="n">
-        <v>275.4936941532785</v>
+        <v>275.5106530926461</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31870,28 +31936,28 @@
         <v>0.0698</v>
       </c>
       <c r="I17" t="n">
-        <v>0.420768556928854</v>
+        <v>0.4221059981353707</v>
       </c>
       <c r="J17" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K17" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05012015883553167</v>
+        <v>0.0506697522930063</v>
       </c>
       <c r="M17" t="n">
-        <v>10.80005082908943</v>
+        <v>10.77742545501334</v>
       </c>
       <c r="N17" t="n">
-        <v>187.3953726909783</v>
+        <v>186.9106868327144</v>
       </c>
       <c r="O17" t="n">
-        <v>13.68924295536383</v>
+        <v>13.67152832834407</v>
       </c>
       <c r="P17" t="n">
-        <v>284.7180654871807</v>
+        <v>284.7046210983809</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31929,7 +31995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R471"/>
+  <dimension ref="A1:R472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68747,11 +68813,7 @@
         </is>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr">
-        <is>
-          <t>-46.5991760381155,168.81408925741275</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr"/>
       <c r="M471" t="inlineStr"/>
@@ -68769,6 +68831,94 @@
         </is>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:18+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-46.6008944735738,168.8209966027137</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-46.60046194182733,168.820331499124</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-46.59998185216939,168.81970971008718</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-46.59979340976259,168.8188222925848</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-46.59948083515726,168.81804793093283</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-46.599149912215005,168.81729027954987</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-46.598826810717505,168.81652550301231</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>-46.59799679489099,168.8151633672615</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>-46.59766924229191,168.81440264213313</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>-46.597377679787144,168.8136091345767</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>-46.59711360965796,168.81279058378027</t>
+        </is>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>-46.59686745592145,168.81195571129516</t>
+        </is>
+      </c>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t>-46.596609396128166,168.81113168089746</t>
+        </is>
+      </c>
+      <c r="P472" t="inlineStr">
+        <is>
+          <t>-46.59637304292504,168.81028787590157</t>
+        </is>
+      </c>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t>-46.59616397769917,168.80941921155022</t>
+        </is>
+      </c>
+      <c r="R472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0550/nzd0550.xlsx
+++ b/data/nzd0550/nzd0550.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36424,7 +36424,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>-46.597149800128456,168.81487575949862</t>
+          <t>-46.59714980012845,168.81487575949862</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -56420,7 +56420,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>-46.597751615310834,168.81432761424637</t>
+          <t>-46.59775161531084,168.81432761424637</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">

--- a/data/nzd0550/nzd0550.xlsx
+++ b/data/nzd0550/nzd0550.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R472"/>
+  <dimension ref="A1:R473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25405,7 +25405,9 @@
       <c r="H470" t="n">
         <v>278.04</v>
       </c>
-      <c r="I470" t="inlineStr"/>
+      <c r="I470" t="n">
+        <v>240.9957142857143</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="n">
         <v>241.5508695652174</v>
@@ -25531,6 +25533,64 @@
       <c r="R472" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>280.7063157894737</v>
+      </c>
+      <c r="C473" t="n">
+        <v>257.12</v>
+      </c>
+      <c r="D473" t="n">
+        <v>238.2763157894737</v>
+      </c>
+      <c r="E473" t="n">
+        <v>304.6538095238095</v>
+      </c>
+      <c r="F473" t="n">
+        <v>302.2623076923077</v>
+      </c>
+      <c r="G473" t="n">
+        <v>303.04</v>
+      </c>
+      <c r="H473" t="n">
+        <v>295.53</v>
+      </c>
+      <c r="I473" t="n">
+        <v>233.0038095238095</v>
+      </c>
+      <c r="J473" t="n">
+        <v>231.3233333333333</v>
+      </c>
+      <c r="K473" t="n">
+        <v>221.195652173913</v>
+      </c>
+      <c r="L473" t="inlineStr"/>
+      <c r="M473" t="n">
+        <v>264.2656521739131</v>
+      </c>
+      <c r="N473" t="n">
+        <v>281.1909090909091</v>
+      </c>
+      <c r="O473" t="n">
+        <v>292.3938095238095</v>
+      </c>
+      <c r="P473" t="n">
+        <v>301.7033333333333</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>321.3866666666667</v>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -25545,7 +25605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B504"/>
+  <dimension ref="A1:B505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30593,6 +30653,16 @@
       </c>
       <c r="B504" t="n">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -30766,28 +30836,28 @@
         <v>0.1413</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004368113756867283</v>
+        <v>-0.001970797164250993</v>
       </c>
       <c r="J2" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K2" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L2" t="n">
-        <v>3.863455137587124e-06</v>
+        <v>7.892423561361994e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>13.10628971934161</v>
+        <v>13.10843187573458</v>
       </c>
       <c r="N2" t="n">
-        <v>273.6731133492041</v>
+        <v>273.3870415799952</v>
       </c>
       <c r="O2" t="n">
-        <v>16.54306843814666</v>
+        <v>16.53441990455049</v>
       </c>
       <c r="P2" t="n">
-        <v>293.4869081424141</v>
+        <v>293.5515598688669</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30844,28 +30914,28 @@
         <v>0.1999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1339738948204178</v>
+        <v>-0.1497486946708479</v>
       </c>
       <c r="J3" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K3" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001532245184925229</v>
+        <v>0.001916732416243905</v>
       </c>
       <c r="M3" t="n">
-        <v>20.49675385168721</v>
+        <v>20.53447104165106</v>
       </c>
       <c r="N3" t="n">
-        <v>611.2234265740095</v>
+        <v>611.8808045495979</v>
       </c>
       <c r="O3" t="n">
-        <v>24.72293321137299</v>
+        <v>24.736224541138</v>
       </c>
       <c r="P3" t="n">
-        <v>289.8220868905458</v>
+        <v>289.9895540014829</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30922,28 +30992,28 @@
         <v>0.1725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5187420339637503</v>
+        <v>-0.5457566271748656</v>
       </c>
       <c r="J4" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K4" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02782655402725553</v>
+        <v>0.03047316279094192</v>
       </c>
       <c r="M4" t="n">
-        <v>15.67677249078871</v>
+        <v>15.8326977509688</v>
       </c>
       <c r="N4" t="n">
-        <v>508.6364138396535</v>
+        <v>514.1820506212113</v>
       </c>
       <c r="O4" t="n">
-        <v>22.55296906927453</v>
+        <v>22.67558269639859</v>
       </c>
       <c r="P4" t="n">
-        <v>301.9900879912306</v>
+        <v>302.2673471559007</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31000,28 +31070,28 @@
         <v>0.1486</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1815730082354258</v>
+        <v>-0.178576255686797</v>
       </c>
       <c r="J5" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K5" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01440601864977253</v>
+        <v>0.01400217141359628</v>
       </c>
       <c r="M5" t="n">
-        <v>8.845827328604235</v>
+        <v>8.837281253690879</v>
       </c>
       <c r="N5" t="n">
-        <v>125.5058012467718</v>
+        <v>125.2848376902607</v>
       </c>
       <c r="O5" t="n">
-        <v>11.20293717052683</v>
+        <v>11.19307096780239</v>
       </c>
       <c r="P5" t="n">
-        <v>303.1733834943348</v>
+        <v>303.1433656501719</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31078,28 +31148,28 @@
         <v>0.179</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2847103198290716</v>
+        <v>-0.2817074436846898</v>
       </c>
       <c r="J6" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K6" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04321982775413546</v>
+        <v>0.04251340740333054</v>
       </c>
       <c r="M6" t="n">
-        <v>7.783615133661217</v>
+        <v>7.778667476396172</v>
       </c>
       <c r="N6" t="n">
-        <v>100.1206140152035</v>
+        <v>99.97163627683658</v>
       </c>
       <c r="O6" t="n">
-        <v>10.00602888338843</v>
+        <v>9.998581713264965</v>
       </c>
       <c r="P6" t="n">
-        <v>303.266478266244</v>
+        <v>303.2362281908313</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31156,28 +31226,28 @@
         <v>0.1186</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3145517335038015</v>
+        <v>-0.3104728800832615</v>
       </c>
       <c r="J7" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K7" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06423036777198554</v>
+        <v>0.06284935360402599</v>
       </c>
       <c r="M7" t="n">
-        <v>7.208770009714125</v>
+        <v>7.210238567561198</v>
       </c>
       <c r="N7" t="n">
-        <v>80.69524370319307</v>
+        <v>80.66839882077454</v>
       </c>
       <c r="O7" t="n">
-        <v>8.983053139283607</v>
+        <v>8.981558819090067</v>
       </c>
       <c r="P7" t="n">
-        <v>302.7806697981981</v>
+        <v>302.7396434955032</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31234,28 +31304,28 @@
         <v>0.1214</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4568441924584387</v>
+        <v>-0.4541131173891025</v>
       </c>
       <c r="J8" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K8" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08660436007453665</v>
+        <v>0.08601209421084743</v>
       </c>
       <c r="M8" t="n">
-        <v>8.376900542030537</v>
+        <v>8.368193769249519</v>
       </c>
       <c r="N8" t="n">
-        <v>121.9231999647685</v>
+        <v>121.6964366383489</v>
       </c>
       <c r="O8" t="n">
-        <v>11.04188389563884</v>
+        <v>11.03161079073899</v>
       </c>
       <c r="P8" t="n">
-        <v>301.7065241270226</v>
+        <v>301.6789932243905</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31312,28 +31382,28 @@
         <v>0.1569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5791437473894503</v>
+        <v>-0.6182346674306884</v>
       </c>
       <c r="J9" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K9" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03020802628512476</v>
+        <v>0.03423630157190094</v>
       </c>
       <c r="M9" t="n">
-        <v>17.09387859507018</v>
+        <v>17.27459450402602</v>
       </c>
       <c r="N9" t="n">
-        <v>567.4015667577956</v>
+        <v>571.1385664209964</v>
       </c>
       <c r="O9" t="n">
-        <v>23.82019241647296</v>
+        <v>23.89850552693612</v>
       </c>
       <c r="P9" t="n">
-        <v>286.4594893590623</v>
+        <v>286.874519189488</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31390,28 +31460,28 @@
         <v>0.1096</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4487340993157312</v>
+        <v>-0.4654400463418566</v>
       </c>
       <c r="J10" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K10" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01765947377047172</v>
+        <v>0.01898735637874993</v>
       </c>
       <c r="M10" t="n">
-        <v>18.7301809715922</v>
+        <v>18.7884391230853</v>
       </c>
       <c r="N10" t="n">
-        <v>593.2322223004268</v>
+        <v>594.2542375224323</v>
       </c>
       <c r="O10" t="n">
-        <v>24.35635897051172</v>
+        <v>24.37733040188019</v>
       </c>
       <c r="P10" t="n">
-        <v>273.8244781746175</v>
+        <v>274.002797198826</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31468,28 +31538,28 @@
         <v>0.1907</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4570679242192002</v>
+        <v>-0.4787367720047974</v>
       </c>
       <c r="J11" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K11" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01942769842613723</v>
+        <v>0.02120493726694961</v>
       </c>
       <c r="M11" t="n">
-        <v>17.47144586590251</v>
+        <v>17.58749695873804</v>
       </c>
       <c r="N11" t="n">
-        <v>565.9370432086778</v>
+        <v>569.110888440813</v>
       </c>
       <c r="O11" t="n">
-        <v>23.78943133428535</v>
+        <v>23.85604511315346</v>
       </c>
       <c r="P11" t="n">
-        <v>273.889803646401</v>
+        <v>274.1204761180135</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31549,7 +31619,7 @@
         <v>-0.4360871283997583</v>
       </c>
       <c r="J12" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K12" t="n">
         <v>363</v>
@@ -31624,28 +31694,28 @@
         <v>0.1589</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1597793654185221</v>
+        <v>-0.1606201102779691</v>
       </c>
       <c r="J13" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K13" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006592411401953768</v>
+        <v>0.006695334300199529</v>
       </c>
       <c r="M13" t="n">
-        <v>10.74134741463143</v>
+        <v>10.717921185312</v>
       </c>
       <c r="N13" t="n">
-        <v>211.5030348648798</v>
+        <v>210.9510704359115</v>
       </c>
       <c r="O13" t="n">
-        <v>14.54314391267857</v>
+        <v>14.52415472362889</v>
       </c>
       <c r="P13" t="n">
-        <v>270.1066515448759</v>
+        <v>270.1152871839807</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31702,28 +31772,28 @@
         <v>0.1433</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2260488572825194</v>
+        <v>0.2318319368933409</v>
       </c>
       <c r="J14" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K14" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01520303821995928</v>
+        <v>0.01602510773438715</v>
       </c>
       <c r="M14" t="n">
-        <v>10.68535127689924</v>
+        <v>10.68415677824131</v>
       </c>
       <c r="N14" t="n">
-        <v>183.2894876068468</v>
+        <v>183.1789026540543</v>
       </c>
       <c r="O14" t="n">
-        <v>13.5384448001551</v>
+        <v>13.53436007552829</v>
       </c>
       <c r="P14" t="n">
-        <v>263.4030956537283</v>
+        <v>263.3437458244367</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31780,28 +31850,28 @@
         <v>0.1312</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4267471315181042</v>
+        <v>0.4357802894707936</v>
       </c>
       <c r="J15" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K15" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0562316789346009</v>
+        <v>0.05849561100684264</v>
       </c>
       <c r="M15" t="n">
-        <v>10.38908242258667</v>
+        <v>10.40794463373473</v>
       </c>
       <c r="N15" t="n">
-        <v>170.442385572913</v>
+        <v>170.8614600649301</v>
       </c>
       <c r="O15" t="n">
-        <v>13.05535850035965</v>
+        <v>13.07139855045856</v>
       </c>
       <c r="P15" t="n">
-        <v>263.2386897191965</v>
+        <v>263.1464065026555</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31858,28 +31928,28 @@
         <v>0.0907</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4991637448122243</v>
+        <v>0.5059580440827086</v>
       </c>
       <c r="J16" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K16" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0641602422602261</v>
+        <v>0.06598700444588701</v>
       </c>
       <c r="M16" t="n">
-        <v>11.05786429895196</v>
+        <v>11.05742917443331</v>
       </c>
       <c r="N16" t="n">
-        <v>201.9337541531922</v>
+        <v>201.8573561249363</v>
       </c>
       <c r="O16" t="n">
-        <v>14.21033969168901</v>
+        <v>14.20765132331647</v>
       </c>
       <c r="P16" t="n">
-        <v>275.5106530926461</v>
+        <v>275.4415259938616</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31936,28 +32006,28 @@
         <v>0.0698</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4221059981353707</v>
+        <v>0.4349820894701386</v>
       </c>
       <c r="J17" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K17" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0506697522930063</v>
+        <v>0.05343020622122852</v>
       </c>
       <c r="M17" t="n">
-        <v>10.77742545501334</v>
+        <v>10.80953953080108</v>
       </c>
       <c r="N17" t="n">
-        <v>186.9106868327144</v>
+        <v>188.1713375599691</v>
       </c>
       <c r="O17" t="n">
-        <v>13.67152832834407</v>
+        <v>13.71755581581388</v>
       </c>
       <c r="P17" t="n">
-        <v>284.7046210983809</v>
+        <v>284.5746273746441</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -31995,7 +32065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R472"/>
+  <dimension ref="A1:R473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68732,7 +68802,11 @@
           <t>-46.598788521311484,168.81656037754212</t>
         </is>
       </c>
-      <c r="I470" t="inlineStr"/>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>-46.59819781745133,168.81603933615807</t>
+        </is>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -68919,6 +68993,94 @@
         </is>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-20 22:26:40+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-46.600661077166166,168.821209173409</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-46.60017282353576,168.820594820164</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-46.59972067215617,168.81994758606368</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-46.59991725106709,168.81870949851833</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-46.599590334730514,168.81794819842193</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-46.599287541438834,168.81716492542324</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-46.59892165877499,168.81643911380104</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>-46.598136981514614,168.81609474602234</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>-46.59781547330313,168.81532851824514</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>-46.59742966221136,168.8146208574374</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr"/>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>-46.59714007309562,168.8127664796041</t>
+        </is>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>-46.596960183966054,168.81187124900214</t>
+        </is>
+      </c>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>-46.596736733424464,168.81101569302942</t>
+        </is>
+      </c>
+      <c r="P473" t="inlineStr">
+        <is>
+          <t>-46.59649886805575,168.81017326403637</t>
+        </is>
+      </c>
+      <c r="Q473" t="inlineStr">
+        <is>
+          <t>-46.596339964435536,168.80925890604288</t>
+        </is>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0550/nzd0550.xlsx
+++ b/data/nzd0550/nzd0550.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R473"/>
+  <dimension ref="A1:R476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25594,6 +25594,158 @@
         </is>
       </c>
     </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>294.791052631579</v>
+      </c>
+      <c r="C474" t="n">
+        <v>292.36</v>
+      </c>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="n">
+        <v>285.6928571428572</v>
+      </c>
+      <c r="F474" t="n">
+        <v>290.8215384615385</v>
+      </c>
+      <c r="G474" t="n">
+        <v>282.92</v>
+      </c>
+      <c r="H474" t="n">
+        <v>290.28</v>
+      </c>
+      <c r="I474" t="n">
+        <v>267.3028571428572</v>
+      </c>
+      <c r="J474" t="n">
+        <v>249.99</v>
+      </c>
+      <c r="K474" t="n">
+        <v>238.9791304347826</v>
+      </c>
+      <c r="L474" t="n">
+        <v>246.9705263157895</v>
+      </c>
+      <c r="M474" t="n">
+        <v>243.6291304347826</v>
+      </c>
+      <c r="N474" t="n">
+        <v>253.5745454545455</v>
+      </c>
+      <c r="O474" t="n">
+        <v>259.0728571428572</v>
+      </c>
+      <c r="P474" t="n">
+        <v>279.27</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>285.65</v>
+      </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>280.1178947368421</v>
+      </c>
+      <c r="C475" t="n">
+        <v>255.79</v>
+      </c>
+      <c r="D475" t="n">
+        <v>233.4978947368421</v>
+      </c>
+      <c r="E475" t="n">
+        <v>302.0166666666667</v>
+      </c>
+      <c r="F475" t="n">
+        <v>302.0592307692308</v>
+      </c>
+      <c r="G475" t="n">
+        <v>306.48</v>
+      </c>
+      <c r="H475" t="n">
+        <v>297.7</v>
+      </c>
+      <c r="I475" t="n">
+        <v>228.7366666666667</v>
+      </c>
+      <c r="J475" t="n">
+        <v>230.4533333333333</v>
+      </c>
+      <c r="K475" t="n">
+        <v>217.6308695652174</v>
+      </c>
+      <c r="L475" t="inlineStr"/>
+      <c r="M475" t="n">
+        <v>271.8608695652174</v>
+      </c>
+      <c r="N475" t="n">
+        <v>280.9845454545454</v>
+      </c>
+      <c r="O475" t="n">
+        <v>285.7066666666667</v>
+      </c>
+      <c r="P475" t="n">
+        <v>299.4833333333333</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>310.8466666666667</v>
+      </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>283.3157894736842</v>
+      </c>
+      <c r="C476" t="n">
+        <v>256.71</v>
+      </c>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="n">
+        <v>310.1557142857143</v>
+      </c>
+      <c r="F476" t="n">
+        <v>311.1507692307692</v>
+      </c>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr"/>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
+      <c r="M476" t="inlineStr"/>
+      <c r="N476" t="inlineStr"/>
+      <c r="O476" t="inlineStr"/>
+      <c r="P476" t="inlineStr"/>
+      <c r="Q476" t="inlineStr"/>
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25605,7 +25757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B505"/>
+  <dimension ref="A1:B508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30663,6 +30815,36 @@
       </c>
       <c r="B505" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -30836,28 +31018,28 @@
         <v>0.1413</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.001970797164250993</v>
+        <v>-0.0127424094244355</v>
       </c>
       <c r="J2" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K2" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L2" t="n">
-        <v>7.892423561361994e-07</v>
+        <v>3.340850782473925e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>13.10843187573458</v>
+        <v>13.07507072061878</v>
       </c>
       <c r="N2" t="n">
-        <v>273.3870415799952</v>
+        <v>271.9785204053125</v>
       </c>
       <c r="O2" t="n">
-        <v>16.53441990455049</v>
+        <v>16.49177129374866</v>
       </c>
       <c r="P2" t="n">
-        <v>293.5515598688669</v>
+        <v>293.6617977816734</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30914,28 +31096,28 @@
         <v>0.1999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1497486946708479</v>
+        <v>-0.1780891995768427</v>
       </c>
       <c r="J3" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K3" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001916732416243905</v>
+        <v>0.002730946603201612</v>
       </c>
       <c r="M3" t="n">
-        <v>20.53447104165106</v>
+        <v>20.56895052864058</v>
       </c>
       <c r="N3" t="n">
-        <v>611.8808045495979</v>
+        <v>611.7766475623057</v>
       </c>
       <c r="O3" t="n">
-        <v>24.736224541138</v>
+        <v>24.73411909816692</v>
       </c>
       <c r="P3" t="n">
-        <v>289.9895540014829</v>
+        <v>290.2914739003992</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30992,28 +31174,28 @@
         <v>0.1725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5457566271748656</v>
+        <v>-0.5749808757913482</v>
       </c>
       <c r="J4" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K4" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03047316279094192</v>
+        <v>0.03338114946534354</v>
       </c>
       <c r="M4" t="n">
-        <v>15.8326977509688</v>
+        <v>16.00395772420946</v>
       </c>
       <c r="N4" t="n">
-        <v>514.1820506212113</v>
+        <v>520.9441662375748</v>
       </c>
       <c r="O4" t="n">
-        <v>22.67558269639859</v>
+        <v>22.82420132748515</v>
       </c>
       <c r="P4" t="n">
-        <v>302.2673471559007</v>
+        <v>302.5679513447566</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31070,28 +31252,28 @@
         <v>0.1486</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.178576255686797</v>
+        <v>-0.1774214547466122</v>
       </c>
       <c r="J5" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K5" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01400217141359628</v>
+        <v>0.01394989743802644</v>
       </c>
       <c r="M5" t="n">
-        <v>8.837281253690879</v>
+        <v>8.840248764910642</v>
       </c>
       <c r="N5" t="n">
-        <v>125.2848376902607</v>
+        <v>125.1259614033984</v>
       </c>
       <c r="O5" t="n">
-        <v>11.19307096780239</v>
+        <v>11.18597163430153</v>
       </c>
       <c r="P5" t="n">
-        <v>303.1433656501719</v>
+        <v>303.1315862601975</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31148,28 +31330,28 @@
         <v>0.179</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2817074436846898</v>
+        <v>-0.2741436215369829</v>
       </c>
       <c r="J6" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K6" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04251340740333054</v>
+        <v>0.0406446562554067</v>
       </c>
       <c r="M6" t="n">
-        <v>7.778667476396172</v>
+        <v>7.782869077722054</v>
       </c>
       <c r="N6" t="n">
-        <v>99.97163627683658</v>
+        <v>99.95747454322796</v>
       </c>
       <c r="O6" t="n">
-        <v>9.998581713264965</v>
+        <v>9.997873501061511</v>
       </c>
       <c r="P6" t="n">
-        <v>303.2362281908313</v>
+        <v>303.1596740085337</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31226,28 +31408,28 @@
         <v>0.1186</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3104728800832615</v>
+        <v>-0.310440051587834</v>
       </c>
       <c r="J7" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K7" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06284935360402599</v>
+        <v>0.06291712982789477</v>
       </c>
       <c r="M7" t="n">
-        <v>7.210238567561198</v>
+        <v>7.233683379702906</v>
       </c>
       <c r="N7" t="n">
-        <v>80.66839882077454</v>
+        <v>80.96676082191289</v>
       </c>
       <c r="O7" t="n">
-        <v>8.981558819090067</v>
+        <v>8.998153189511328</v>
       </c>
       <c r="P7" t="n">
-        <v>302.7396434955032</v>
+        <v>302.7392498970513</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31304,28 +31486,28 @@
         <v>0.1214</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4541131173891025</v>
+        <v>-0.4502037776037346</v>
       </c>
       <c r="J8" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K8" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08601209421084743</v>
+        <v>0.08535779727008685</v>
       </c>
       <c r="M8" t="n">
-        <v>8.368193769249519</v>
+        <v>8.343856345217514</v>
       </c>
       <c r="N8" t="n">
-        <v>121.6964366383489</v>
+        <v>121.2386911135477</v>
       </c>
       <c r="O8" t="n">
-        <v>11.03161079073899</v>
+        <v>11.010844250717</v>
       </c>
       <c r="P8" t="n">
-        <v>301.6789932243905</v>
+        <v>301.6394971831046</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31382,28 +31564,28 @@
         <v>0.1569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6182346674306884</v>
+        <v>-0.6439047993884297</v>
       </c>
       <c r="J9" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K9" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03423630157190094</v>
+        <v>0.03710209245292095</v>
       </c>
       <c r="M9" t="n">
-        <v>17.27459450402602</v>
+        <v>17.35702216929479</v>
       </c>
       <c r="N9" t="n">
-        <v>571.1385664209964</v>
+        <v>573.0144920851167</v>
       </c>
       <c r="O9" t="n">
-        <v>23.89850552693612</v>
+        <v>23.93772111302821</v>
       </c>
       <c r="P9" t="n">
-        <v>286.874519189488</v>
+        <v>287.1484741309833</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31460,28 +31642,28 @@
         <v>0.1096</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4654400463418566</v>
+        <v>-0.4886370807913248</v>
       </c>
       <c r="J10" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K10" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01898735637874993</v>
+        <v>0.02099346026478721</v>
       </c>
       <c r="M10" t="n">
-        <v>18.7884391230853</v>
+        <v>18.83722604913554</v>
       </c>
       <c r="N10" t="n">
-        <v>594.2542375224323</v>
+        <v>594.0466017043489</v>
       </c>
       <c r="O10" t="n">
-        <v>24.37733040188019</v>
+        <v>24.37307124070228</v>
       </c>
       <c r="P10" t="n">
-        <v>274.002797198826</v>
+        <v>274.2509116143997</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31538,28 +31720,28 @@
         <v>0.1907</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4787367720047974</v>
+        <v>-0.5137325237071472</v>
       </c>
       <c r="J11" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K11" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02120493726694961</v>
+        <v>0.02429330111530825</v>
       </c>
       <c r="M11" t="n">
-        <v>17.58749695873804</v>
+        <v>17.75271035161184</v>
       </c>
       <c r="N11" t="n">
-        <v>569.110888440813</v>
+        <v>572.8290044330176</v>
       </c>
       <c r="O11" t="n">
-        <v>23.85604511315346</v>
+        <v>23.93384641951681</v>
       </c>
       <c r="P11" t="n">
-        <v>274.1204761180135</v>
+        <v>274.493784118244</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31616,28 +31798,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4360871283997583</v>
+        <v>-0.4458128676269623</v>
       </c>
       <c r="J12" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K12" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03078025294069631</v>
+        <v>0.03220340632721463</v>
       </c>
       <c r="M12" t="n">
-        <v>12.369619659312</v>
+        <v>12.40235586510891</v>
       </c>
       <c r="N12" t="n">
-        <v>328.2235871028026</v>
+        <v>328.2724852797853</v>
       </c>
       <c r="O12" t="n">
-        <v>18.11694199093221</v>
+        <v>18.11829145586816</v>
       </c>
       <c r="P12" t="n">
-        <v>276.9672414873227</v>
+        <v>277.0670460124619</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31694,28 +31876,28 @@
         <v>0.1589</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1606201102779691</v>
+        <v>-0.1686288988066613</v>
       </c>
       <c r="J13" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K13" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006695334300199529</v>
+        <v>0.007400599710835509</v>
       </c>
       <c r="M13" t="n">
-        <v>10.717921185312</v>
+        <v>10.74116137735142</v>
       </c>
       <c r="N13" t="n">
-        <v>210.9510704359115</v>
+        <v>211.2382386922986</v>
       </c>
       <c r="O13" t="n">
-        <v>14.52415472362889</v>
+        <v>14.53403724683196</v>
       </c>
       <c r="P13" t="n">
-        <v>270.1152871839807</v>
+        <v>270.1976168642564</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31772,28 +31954,28 @@
         <v>0.1433</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2318319368933409</v>
+        <v>0.2298484981024422</v>
       </c>
       <c r="J14" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K14" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01602510773438715</v>
+        <v>0.01582514064624274</v>
       </c>
       <c r="M14" t="n">
-        <v>10.68415677824131</v>
+        <v>10.7014388424345</v>
       </c>
       <c r="N14" t="n">
-        <v>183.1789026540543</v>
+        <v>183.2251505579454</v>
       </c>
       <c r="O14" t="n">
-        <v>13.53436007552829</v>
+        <v>13.53606850447889</v>
       </c>
       <c r="P14" t="n">
-        <v>263.3437458244367</v>
+        <v>263.3640617827582</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31850,28 +32032,28 @@
         <v>0.1312</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4357802894707936</v>
+        <v>0.4337500139939161</v>
       </c>
       <c r="J15" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K15" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05849561100684264</v>
+        <v>0.05822785903289518</v>
       </c>
       <c r="M15" t="n">
-        <v>10.40794463373473</v>
+        <v>10.42402146923203</v>
       </c>
       <c r="N15" t="n">
-        <v>170.8614600649301</v>
+        <v>170.9186418390061</v>
       </c>
       <c r="O15" t="n">
-        <v>13.07139855045856</v>
+        <v>13.0735856534849</v>
       </c>
       <c r="P15" t="n">
-        <v>263.1464065026555</v>
+        <v>263.1671091871079</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31928,28 +32110,28 @@
         <v>0.0907</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5059580440827086</v>
+        <v>0.5067765015895044</v>
       </c>
       <c r="J16" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K16" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06598700444588701</v>
+        <v>0.06667225377582731</v>
       </c>
       <c r="M16" t="n">
-        <v>11.05742917443331</v>
+        <v>11.05144533686058</v>
       </c>
       <c r="N16" t="n">
-        <v>201.8573561249363</v>
+        <v>201.3152857732295</v>
       </c>
       <c r="O16" t="n">
-        <v>14.20765132331647</v>
+        <v>14.18856179368541</v>
       </c>
       <c r="P16" t="n">
-        <v>275.4415259938616</v>
+        <v>275.433125570121</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -32006,28 +32188,28 @@
         <v>0.0698</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4349820894701386</v>
+        <v>0.4373462783528767</v>
       </c>
       <c r="J17" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K17" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05343020622122852</v>
+        <v>0.05427683742429557</v>
       </c>
       <c r="M17" t="n">
-        <v>10.80953953080108</v>
+        <v>10.81760470920134</v>
       </c>
       <c r="N17" t="n">
-        <v>188.1713375599691</v>
+        <v>188.0433229386683</v>
       </c>
       <c r="O17" t="n">
-        <v>13.71755581581388</v>
+        <v>13.71288893481852</v>
       </c>
       <c r="P17" t="n">
-        <v>284.5746273746441</v>
+        <v>284.5506458774668</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -32065,7 +32247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R473"/>
+  <dimension ref="A1:R476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69081,6 +69263,226 @@
         </is>
       </c>
     </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-46.6007682959771,168.8211115219029</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-46.60044108392273,168.82035049605136</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr"/>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-46.59977291452886,168.81884095948314</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-46.59950324451672,168.818027520468</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-46.5991343832438,168.81730442344806</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>-46.59888169471515,168.8164755137873</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>-46.598398072328045,168.81585694129245</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>-46.597957566930496,168.81519909691517</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>-46.59756503234762,168.8144975593558</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>-46.597317143683156,168.81366427307316</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>-46.59698298688971,168.81290956086957</t>
+        </is>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>-46.59674996799998,168.81206272585663</t>
+        </is>
+      </c>
+      <c r="O474" t="inlineStr">
+        <is>
+          <t>-46.59648309537286,168.8112467239358</t>
+        </is>
+      </c>
+      <c r="P474" t="inlineStr">
+        <is>
+          <t>-46.59632810715813,168.81032880692788</t>
+        </is>
+      </c>
+      <c r="Q474" t="inlineStr">
+        <is>
+          <t>-46.596067940996846,168.80950669038984</t>
+        </is>
+      </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-46.600656597860926,168.82121325300815</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-46.60016269905401,168.82060404120153</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-46.599684297057024,168.81998071533192</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-46.59989717634394,168.8187277825238</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-46.5995887888549,168.81794960641318</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-46.59931372751187,168.8171410747856</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>-46.598938177249096,168.81642406845734</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>-46.59810449917862,168.81612433113344</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>-46.59780885072095,168.81533455018663</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>-46.597402526606416,168.81464557304722</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr"/>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>-46.59719788820655,168.8127138187083</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>-46.5969586131259,168.81187267982108</t>
+        </is>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>-46.59668583114518,168.8110620585284</t>
+        </is>
+      </c>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>-46.59648196958866,168.81018865658712</t>
+        </is>
+      </c>
+      <c r="Q475" t="inlineStr">
+        <is>
+          <t>-46.59625973522073,168.80933198662677</t>
+        </is>
+      </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-46.6006809415607,168.8211910815825</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-46.600169702455005,168.82059766273986</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-46.59995913320692,168.81867135232002</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-46.59965799604692,168.81788657205746</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr"/>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
+      <c r="M476" t="inlineStr"/>
+      <c r="N476" t="inlineStr"/>
+      <c r="O476" t="inlineStr"/>
+      <c r="P476" t="inlineStr"/>
+      <c r="Q476" t="inlineStr"/>
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0550/nzd0550.xlsx
+++ b/data/nzd0550/nzd0550.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R476"/>
+  <dimension ref="A1:R482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25722,7 +25722,9 @@
       <c r="C476" t="n">
         <v>256.71</v>
       </c>
-      <c r="D476" t="inlineStr"/>
+      <c r="D476" t="n">
+        <v>286.7657894736842</v>
+      </c>
       <c r="E476" t="n">
         <v>310.1557142857143</v>
       </c>
@@ -25746,6 +25748,356 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>278.2873684210526</v>
+      </c>
+      <c r="C477" t="n">
+        <v>262.89</v>
+      </c>
+      <c r="D477" t="n">
+        <v>296.4373684210527</v>
+      </c>
+      <c r="E477" t="n">
+        <v>298.3180952380952</v>
+      </c>
+      <c r="F477" t="n">
+        <v>301.0292307692308</v>
+      </c>
+      <c r="G477" t="n">
+        <v>297.89</v>
+      </c>
+      <c r="H477" t="n">
+        <v>296.31</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>221.8033333333333</v>
+      </c>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="n">
+        <v>276.4836842105263</v>
+      </c>
+      <c r="M477" t="n">
+        <v>270.5582608695652</v>
+      </c>
+      <c r="N477" t="n">
+        <v>276.7036363636363</v>
+      </c>
+      <c r="O477" t="n">
+        <v>260.0380952380953</v>
+      </c>
+      <c r="P477" t="n">
+        <v>284.5933333333333</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>294.0366666666667</v>
+      </c>
+      <c r="R477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>290.7068421052632</v>
+      </c>
+      <c r="C478" t="n">
+        <v>272.29</v>
+      </c>
+      <c r="D478" t="n">
+        <v>301.5368421052632</v>
+      </c>
+      <c r="E478" t="n">
+        <v>304.1661904761905</v>
+      </c>
+      <c r="F478" t="n">
+        <v>300.14</v>
+      </c>
+      <c r="G478" t="n">
+        <v>301.69</v>
+      </c>
+      <c r="H478" t="n">
+        <v>293.76</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>232.5066666666666</v>
+      </c>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="n">
+        <v>272.7284210526316</v>
+      </c>
+      <c r="M478" t="n">
+        <v>273.6108695652174</v>
+      </c>
+      <c r="N478" t="n">
+        <v>277.5036363636364</v>
+      </c>
+      <c r="O478" t="n">
+        <v>291.0661904761905</v>
+      </c>
+      <c r="P478" t="n">
+        <v>305.7266666666666</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>311.0833333333333</v>
+      </c>
+      <c r="R478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:21:12+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>284.1952631578947</v>
+      </c>
+      <c r="C479" t="n">
+        <v>263.94</v>
+      </c>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="n">
+        <v>283.0357142857143</v>
+      </c>
+      <c r="F479" t="n">
+        <v>281.8053846153846</v>
+      </c>
+      <c r="G479" t="n">
+        <v>273.04</v>
+      </c>
+      <c r="H479" t="n">
+        <v>256.48</v>
+      </c>
+      <c r="I479" t="n">
+        <v>230.6957142857143</v>
+      </c>
+      <c r="J479" t="n">
+        <v>220.55</v>
+      </c>
+      <c r="K479" t="n">
+        <v>227.2447826086957</v>
+      </c>
+      <c r="L479" t="n">
+        <v>244.8626315789474</v>
+      </c>
+      <c r="M479" t="n">
+        <v>251.2447826086957</v>
+      </c>
+      <c r="N479" t="n">
+        <v>255.7436363636364</v>
+      </c>
+      <c r="O479" t="n">
+        <v>262.4857142857143</v>
+      </c>
+      <c r="P479" t="n">
+        <v>279.13</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>293.7</v>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-15 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>290.99</v>
+      </c>
+      <c r="C480" t="n">
+        <v>275.38</v>
+      </c>
+      <c r="D480" t="n">
+        <v>308.1</v>
+      </c>
+      <c r="E480" t="n">
+        <v>313.1</v>
+      </c>
+      <c r="F480" t="n">
+        <v>308.23</v>
+      </c>
+      <c r="G480" t="n">
+        <v>304.94</v>
+      </c>
+      <c r="H480" t="n">
+        <v>303.19</v>
+      </c>
+      <c r="I480" t="n">
+        <v>287.64</v>
+      </c>
+      <c r="J480" t="n">
+        <v>284.42</v>
+      </c>
+      <c r="K480" t="n">
+        <v>283.85</v>
+      </c>
+      <c r="L480" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="M480" t="n">
+        <v>284.3</v>
+      </c>
+      <c r="N480" t="n">
+        <v>285.83</v>
+      </c>
+      <c r="O480" t="n">
+        <v>299.58</v>
+      </c>
+      <c r="P480" t="n">
+        <v>310.46</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>315.04</v>
+      </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>286.7747368421053</v>
+      </c>
+      <c r="C481" t="n">
+        <v>278.11</v>
+      </c>
+      <c r="D481" t="n">
+        <v>277.8147368421053</v>
+      </c>
+      <c r="E481" t="n">
+        <v>289.0133333333333</v>
+      </c>
+      <c r="F481" t="n">
+        <v>289.0676923076923</v>
+      </c>
+      <c r="G481" t="n">
+        <v>285.95</v>
+      </c>
+      <c r="H481" t="n">
+        <v>271.3</v>
+      </c>
+      <c r="I481" t="n">
+        <v>254.9033333333333</v>
+      </c>
+      <c r="J481" t="n">
+        <v>249.9366666666667</v>
+      </c>
+      <c r="K481" t="n">
+        <v>248.8195652173913</v>
+      </c>
+      <c r="L481" t="n">
+        <v>250.7573684210526</v>
+      </c>
+      <c r="M481" t="n">
+        <v>248.7795652173913</v>
+      </c>
+      <c r="N481" t="n">
+        <v>261.860909090909</v>
+      </c>
+      <c r="O481" t="n">
+        <v>273.0833333333333</v>
+      </c>
+      <c r="P481" t="n">
+        <v>287.4066666666666</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>296.6633333333333</v>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>288.2152631578948</v>
+      </c>
+      <c r="C482" t="n">
+        <v>292.52</v>
+      </c>
+      <c r="D482" t="n">
+        <v>299.3552631578947</v>
+      </c>
+      <c r="E482" t="n">
+        <v>304.9666666666667</v>
+      </c>
+      <c r="F482" t="n">
+        <v>302.1023076923077</v>
+      </c>
+      <c r="G482" t="n">
+        <v>302.6</v>
+      </c>
+      <c r="H482" t="n">
+        <v>296.36</v>
+      </c>
+      <c r="I482" t="n">
+        <v>286.9566666666667</v>
+      </c>
+      <c r="J482" t="n">
+        <v>273.6133333333333</v>
+      </c>
+      <c r="K482" t="n">
+        <v>273.5104347826087</v>
+      </c>
+      <c r="L482" t="n">
+        <v>279.5326315789474</v>
+      </c>
+      <c r="M482" t="n">
+        <v>276.8604347826087</v>
+      </c>
+      <c r="N482" t="n">
+        <v>278.5990909090909</v>
+      </c>
+      <c r="O482" t="n">
+        <v>288.5166666666667</v>
+      </c>
+      <c r="P482" t="n">
+        <v>304.7933333333333</v>
+      </c>
+      <c r="Q482" t="n">
+        <v>310.7966666666667</v>
+      </c>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25757,7 +26109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B508"/>
+  <dimension ref="A1:B514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30845,6 +31197,66 @@
       </c>
       <c r="B508" t="n">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-08-15 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -31018,28 +31430,28 @@
         <v>0.1413</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0127424094244355</v>
+        <v>-0.03172530315914598</v>
       </c>
       <c r="J2" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K2" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L2" t="n">
-        <v>3.340850782473925e-05</v>
+        <v>0.0002125025562949023</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07507072061878</v>
+        <v>12.98189988213227</v>
       </c>
       <c r="N2" t="n">
-        <v>271.9785204053125</v>
+        <v>268.757641054489</v>
       </c>
       <c r="O2" t="n">
-        <v>16.49177129374866</v>
+        <v>16.3938293590756</v>
       </c>
       <c r="P2" t="n">
-        <v>293.6617977816734</v>
+        <v>293.8567235839552</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31096,28 +31508,28 @@
         <v>0.1999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1780891995768427</v>
+        <v>-0.2130254683308202</v>
       </c>
       <c r="J3" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K3" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002730946603201612</v>
+        <v>0.004003905340278058</v>
       </c>
       <c r="M3" t="n">
-        <v>20.56895052864058</v>
+        <v>20.47929051982211</v>
       </c>
       <c r="N3" t="n">
-        <v>611.7766475623057</v>
+        <v>605.4448496328099</v>
       </c>
       <c r="O3" t="n">
-        <v>24.73411909816692</v>
+        <v>24.60578894554714</v>
       </c>
       <c r="P3" t="n">
-        <v>290.2914739003992</v>
+        <v>290.6645993800408</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31174,28 +31586,28 @@
         <v>0.1725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5749808757913482</v>
+        <v>-0.5520898328140463</v>
       </c>
       <c r="J4" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K4" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03338114946534354</v>
+        <v>0.03171685133372626</v>
       </c>
       <c r="M4" t="n">
-        <v>16.00395772420946</v>
+        <v>15.87032558104157</v>
       </c>
       <c r="N4" t="n">
-        <v>520.9441662375748</v>
+        <v>514.9160152924085</v>
       </c>
       <c r="O4" t="n">
-        <v>22.82420132748515</v>
+        <v>22.69176095617986</v>
       </c>
       <c r="P4" t="n">
-        <v>302.5679513447566</v>
+        <v>302.3313973589174</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31252,28 +31664,28 @@
         <v>0.1486</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1774214547466122</v>
+        <v>-0.1766897385828903</v>
       </c>
       <c r="J5" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K5" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01394989743802644</v>
+        <v>0.01408138805324632</v>
       </c>
       <c r="M5" t="n">
-        <v>8.840248764910642</v>
+        <v>8.836915914572071</v>
       </c>
       <c r="N5" t="n">
-        <v>125.1259614033984</v>
+        <v>124.7940513285919</v>
       </c>
       <c r="O5" t="n">
-        <v>11.18597163430153</v>
+        <v>11.17112578608763</v>
       </c>
       <c r="P5" t="n">
-        <v>303.1315862601975</v>
+        <v>303.1241328898548</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31330,28 +31742,28 @@
         <v>0.179</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2741436215369829</v>
+        <v>-0.2713213536287706</v>
       </c>
       <c r="J6" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K6" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0406446562554067</v>
+        <v>0.04050518266835601</v>
       </c>
       <c r="M6" t="n">
-        <v>7.782869077722054</v>
+        <v>7.786139867469632</v>
       </c>
       <c r="N6" t="n">
-        <v>99.95747454322796</v>
+        <v>99.66158823255518</v>
       </c>
       <c r="O6" t="n">
-        <v>9.997873501061511</v>
+        <v>9.983065072038507</v>
       </c>
       <c r="P6" t="n">
-        <v>303.1596740085337</v>
+        <v>303.1310076771313</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31408,28 +31820,28 @@
         <v>0.1186</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.310440051587834</v>
+        <v>-0.3112427992879263</v>
       </c>
       <c r="J7" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K7" t="n">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06291712982789477</v>
+        <v>0.06356796781991114</v>
       </c>
       <c r="M7" t="n">
-        <v>7.233683379702906</v>
+        <v>7.273044111918663</v>
       </c>
       <c r="N7" t="n">
-        <v>80.96676082191289</v>
+        <v>81.68934381424225</v>
       </c>
       <c r="O7" t="n">
-        <v>8.998153189511328</v>
+        <v>9.038215742846718</v>
       </c>
       <c r="P7" t="n">
-        <v>302.7392498970513</v>
+        <v>302.7473214873898</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31486,28 +31898,28 @@
         <v>0.1214</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4502037776037346</v>
+        <v>-0.4603147693795501</v>
       </c>
       <c r="J8" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K8" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08535779727008685</v>
+        <v>0.08846796013442948</v>
       </c>
       <c r="M8" t="n">
-        <v>8.343856345217514</v>
+        <v>8.431264791601555</v>
       </c>
       <c r="N8" t="n">
-        <v>121.2386911135477</v>
+        <v>123.723644035325</v>
       </c>
       <c r="O8" t="n">
-        <v>11.010844250717</v>
+        <v>11.12311305504556</v>
       </c>
       <c r="P8" t="n">
-        <v>301.6394971831046</v>
+        <v>301.7420998050608</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31564,28 +31976,28 @@
         <v>0.1569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6439047993884297</v>
+        <v>-0.6555084100220696</v>
       </c>
       <c r="J9" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K9" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03710209245292095</v>
+        <v>0.03876784722697724</v>
       </c>
       <c r="M9" t="n">
-        <v>17.35702216929479</v>
+        <v>17.43810664413719</v>
       </c>
       <c r="N9" t="n">
-        <v>573.0144920851167</v>
+        <v>573.2867647747044</v>
       </c>
       <c r="O9" t="n">
-        <v>23.93772111302821</v>
+        <v>23.94340754309428</v>
       </c>
       <c r="P9" t="n">
-        <v>287.1484741309833</v>
+        <v>287.2726545760527</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31642,28 +32054,28 @@
         <v>0.1096</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4886370807913248</v>
+        <v>-0.5328808479393418</v>
       </c>
       <c r="J10" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K10" t="n">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02099346026478721</v>
+        <v>0.02506256782812366</v>
       </c>
       <c r="M10" t="n">
-        <v>18.83722604913554</v>
+        <v>19.01766959656136</v>
       </c>
       <c r="N10" t="n">
-        <v>594.0466017043489</v>
+        <v>597.6849417066661</v>
       </c>
       <c r="O10" t="n">
-        <v>24.37307124070228</v>
+        <v>24.44759582672018</v>
       </c>
       <c r="P10" t="n">
-        <v>274.2509116143997</v>
+        <v>274.7258729647622</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31720,28 +32132,28 @@
         <v>0.1907</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5137325237071472</v>
+        <v>-0.5193078874600908</v>
       </c>
       <c r="J11" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K11" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02429330111530825</v>
+        <v>0.02506833065731295</v>
       </c>
       <c r="M11" t="n">
-        <v>17.75271035161184</v>
+        <v>17.79402482841883</v>
       </c>
       <c r="N11" t="n">
-        <v>572.8290044330176</v>
+        <v>571.9037660535878</v>
       </c>
       <c r="O11" t="n">
-        <v>23.93384641951681</v>
+        <v>23.9145095298563</v>
       </c>
       <c r="P11" t="n">
-        <v>274.493784118244</v>
+        <v>274.5533537540654</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31798,28 +32210,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4458128676269623</v>
+        <v>-0.4360170701683189</v>
       </c>
       <c r="J12" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K12" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03220340632721463</v>
+        <v>0.03144042567306149</v>
       </c>
       <c r="M12" t="n">
-        <v>12.40235586510891</v>
+        <v>12.42860108574184</v>
       </c>
       <c r="N12" t="n">
-        <v>328.2724852797853</v>
+        <v>327.0294776766748</v>
       </c>
       <c r="O12" t="n">
-        <v>18.11829145586816</v>
+        <v>18.08395636127987</v>
       </c>
       <c r="P12" t="n">
-        <v>277.0670460124619</v>
+        <v>276.9658840770232</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31876,28 +32288,28 @@
         <v>0.1589</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1686288988066613</v>
+        <v>-0.163637085641784</v>
       </c>
       <c r="J13" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K13" t="n">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007400599710835509</v>
+        <v>0.007090265298337561</v>
       </c>
       <c r="M13" t="n">
-        <v>10.74116137735142</v>
+        <v>10.7613696696857</v>
       </c>
       <c r="N13" t="n">
-        <v>211.2382386922986</v>
+        <v>210.6723702466708</v>
       </c>
       <c r="O13" t="n">
-        <v>14.53403724683196</v>
+        <v>14.51455718396778</v>
       </c>
       <c r="P13" t="n">
-        <v>270.1976168642564</v>
+        <v>270.1459233436362</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31954,28 +32366,28 @@
         <v>0.1433</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2298484981024422</v>
+        <v>0.2391634819350674</v>
       </c>
       <c r="J14" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K14" t="n">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01582514064624274</v>
+        <v>0.01743426345880217</v>
       </c>
       <c r="M14" t="n">
-        <v>10.7014388424345</v>
+        <v>10.68903511505191</v>
       </c>
       <c r="N14" t="n">
-        <v>183.2251505579454</v>
+        <v>182.2386922676155</v>
       </c>
       <c r="O14" t="n">
-        <v>13.53606850447889</v>
+        <v>13.49958118860046</v>
       </c>
       <c r="P14" t="n">
-        <v>263.3640617827582</v>
+        <v>263.2677262376777</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32032,28 +32444,28 @@
         <v>0.1312</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4337500139939161</v>
+        <v>0.4470869161132219</v>
       </c>
       <c r="J15" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K15" t="n">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05822785903289518</v>
+        <v>0.06206712292944028</v>
       </c>
       <c r="M15" t="n">
-        <v>10.42402146923203</v>
+        <v>10.47737665197749</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9186418390061</v>
+        <v>172.0473297043067</v>
       </c>
       <c r="O15" t="n">
-        <v>13.0735856534849</v>
+        <v>13.116681352549</v>
       </c>
       <c r="P15" t="n">
-        <v>263.1671091871079</v>
+        <v>263.0295663920299</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32110,28 +32522,28 @@
         <v>0.0907</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5067765015895044</v>
+        <v>0.5264398146121049</v>
       </c>
       <c r="J16" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K16" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06667225377582731</v>
+        <v>0.07264223247791723</v>
       </c>
       <c r="M16" t="n">
-        <v>11.05144533686058</v>
+        <v>11.0429487675379</v>
       </c>
       <c r="N16" t="n">
-        <v>201.3152857732295</v>
+        <v>201.0885107856964</v>
       </c>
       <c r="O16" t="n">
-        <v>14.18856179368541</v>
+        <v>14.18056806992218</v>
       </c>
       <c r="P16" t="n">
-        <v>275.433125570121</v>
+        <v>275.2314239528398</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -32188,28 +32600,28 @@
         <v>0.0698</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4373462783528767</v>
+        <v>0.4591010212787388</v>
       </c>
       <c r="J17" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K17" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05427683742429557</v>
+        <v>0.06057034403095718</v>
       </c>
       <c r="M17" t="n">
-        <v>10.81760470920134</v>
+        <v>10.77549084676779</v>
       </c>
       <c r="N17" t="n">
-        <v>188.0433229386683</v>
+        <v>187.1987219210126</v>
       </c>
       <c r="O17" t="n">
-        <v>13.71288893481852</v>
+        <v>13.68205839488389</v>
       </c>
       <c r="P17" t="n">
-        <v>284.5506458774668</v>
+        <v>284.3292776441646</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -32247,7 +32659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R476"/>
+  <dimension ref="A1:R482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69455,7 +69867,11 @@
           <t>-46.600169702455005,168.82059766273986</t>
         </is>
       </c>
-      <c r="D476" t="inlineStr"/>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-46.600089791234325,168.8196114011499</t>
+        </is>
+      </c>
       <c r="E476" t="inlineStr">
         <is>
           <t>-46.59995913320692,168.81867135232002</t>
@@ -69483,6 +69899,538 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-30 22:26:51+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-46.60064266313388,168.82122594427923</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-46.600216747029165,168.8205548160731</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-46.600163414586376,168.8195443460584</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-46.59986902170205,168.81875342566957</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-46.5995809482203,168.8179567477009</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-46.599248338440695,168.81720063200237</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-46.5989275962913,168.81643370579837</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>-46.59774300548711,168.81539452285622</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>-46.59754180017975,168.81345964694728</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>-46.597187972696965,168.81272285026054</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>-46.596926026838126,168.81190236141552</t>
+        </is>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>-46.596490442742855,168.81124003148614</t>
+        </is>
+      </c>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>-46.596368628005735,168.81029189736066</t>
+        </is>
+      </c>
+      <c r="Q477" t="inlineStr">
+        <is>
+          <t>-46.59613177940533,168.8094485406866</t>
+        </is>
+      </c>
+      <c r="R477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-07 22:26:57+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-46.60073720529648,168.8211398383625</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-46.600288303465135,168.82048964462186</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-46.60020223349786,168.81950899025955</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-46.599913539164774,168.81871287931054</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-46.599574179158175,168.81796291299315</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-46.599277264926016,168.8171742854054</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>-46.598908185179184,168.81645138580254</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>-46.59782448102924,168.81532031387786</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>-46.59751321484282,168.8134856837339</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>-46.59721120927537,168.8127016851923</t>
+        </is>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>-46.596932116440264,168.81189681463485</t>
+        </is>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>-46.59672662764008,168.81102489812164</t>
+        </is>
+      </c>
+      <c r="P478" t="inlineStr">
+        <is>
+          <t>-46.59652949334952,168.81014536790215</t>
+        </is>
+      </c>
+      <c r="Q478" t="inlineStr">
+        <is>
+          <t>-46.59626153669958,168.80933034566732</t>
+        </is>
+      </c>
+      <c r="R478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:21:12+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-46.60068763647788,168.82118498407195</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-46.60022474003747,168.82054753629205</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-46.599752687534874,168.81885938205352</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-46.59943461108223,168.8180900317953</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-46.59905917427587,168.8173729241711</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>-46.59862440196683,168.81670985905134</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>-46.59811941183795,168.81611074859725</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>-46.59773346490295,168.81540321252547</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>-46.59747570899197,168.81457891710883</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>-46.59730109820498,168.81367888785536</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>-46.59704095762841,168.81285675860343</t>
+        </is>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>-46.596766479149764,168.81204768661425</t>
+        </is>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>-46.596509073960256,168.8112230609839</t>
+        </is>
+      </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>-46.59632704148755,168.8103297776233</t>
+        </is>
+      </c>
+      <c r="Q479" t="inlineStr">
+        <is>
+          <t>-46.59612921673539,168.8094508749977</t>
+        </is>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-15 22:27:03+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-46.60073936081044,168.82113787518637</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-46.60031182573087,168.8204682212021</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-46.600252194447755,168.81946348633244</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-46.59998154598169,168.81865093876368</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-46.59963576238455,168.81790682264216</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-46.599302004677575,168.81715175210886</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>-46.59897996821701,168.81638600438927</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>-46.59855288221804,168.81571593718164</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>-46.59821965310138,168.81496038207405</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>-46.59790659451721,168.81418645362982</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>-46.59762794075852,168.8133811860979</t>
+        </is>
+      </c>
+      <c r="M480" t="inlineStr">
+        <is>
+          <t>-46.59729257532384,168.81262757264014</t>
+        </is>
+      </c>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>-46.59699549672383,168.8118390839184</t>
+        </is>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>-46.59679143441085,168.81096586727</t>
+        </is>
+      </c>
+      <c r="P480" t="inlineStr">
+        <is>
+          <t>-46.59656552309668,168.81011254887946</t>
+        </is>
+      </c>
+      <c r="Q480" t="inlineStr">
+        <is>
+          <t>-46.59629165437725,168.80930291158225</t>
+        </is>
+      </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-46.600707272495576,168.82116710022157</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-46.60033260753454,168.82044929369894</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-46.6000216527329,168.81967346051488</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-46.59979819101663,168.81881793785354</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-46.59948989376218,168.8180396803498</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-46.59915744833265,168.81728341559628</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>-46.59873721501033,168.8166071079464</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>-46.59830368488322,168.81594291087143</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>-46.59795716094895,168.81519946669138</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>-46.59763993894281,168.8144293324586</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>-46.59734596944933,168.81363801753082</t>
+        </is>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>-46.59702219226911,168.81287385092304</t>
+        </is>
+      </c>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>-46.596813043901264,168.81200527287476</t>
+        </is>
+      </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>-46.59658974274782,168.81114958253357</t>
+        </is>
+      </c>
+      <c r="P481" t="inlineStr">
+        <is>
+          <t>-46.596390042900154,168.81027239096673</t>
+        </is>
+      </c>
+      <c r="Q481" t="inlineStr">
+        <is>
+          <t>-46.59615177330358,168.80943032842958</t>
+        </is>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-23 22:27:01+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-46.60071823837467,168.82115711284618</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-46.600442301902675,168.82034938674215</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-46.60018562658559,168.8195241156438</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-46.59991963262936,168.8187073293965</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-46.599589116767916,168.81794930774836</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-46.599284192056984,168.81716797608448</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-46.5989279769013,168.81643335913148</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>-46.598547680568444,168.81572067497012</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>-46.598137391244784,168.81503530860522</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>-46.597827888657086,168.8142581418749</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>-46.597565008984276,168.81343850731838</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>-46.59723594508959,168.8126791545182</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>-46.596940455042684,168.8118892193252</t>
+        </is>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>-46.59670722076191,168.81104257532274</t>
+        </is>
+      </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>-46.59652238889102,168.81015183925348</t>
+        </is>
+      </c>
+      <c r="Q482" t="inlineStr">
+        <is>
+          <t>-46.59625935462659,168.80933233330833</t>
+        </is>
+      </c>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0550/nzd0550.xlsx
+++ b/data/nzd0550/nzd0550.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R482"/>
+  <dimension ref="A1:R483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26098,6 +26098,36 @@
         </is>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:53+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr"/>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr"/>
+      <c r="N483" t="n">
+        <v>251.5063636363636</v>
+      </c>
+      <c r="O483" t="inlineStr"/>
+      <c r="P483" t="inlineStr"/>
+      <c r="Q483" t="inlineStr"/>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26109,7 +26139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B514"/>
+  <dimension ref="A1:B515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31257,6 +31287,16 @@
       </c>
       <c r="B514" t="n">
         <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -31433,7 +31473,7 @@
         <v>-0.03172530315914598</v>
       </c>
       <c r="J2" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K2" t="n">
         <v>389</v>
@@ -31511,7 +31551,7 @@
         <v>-0.2130254683308202</v>
       </c>
       <c r="J3" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K3" t="n">
         <v>368</v>
@@ -31589,7 +31629,7 @@
         <v>-0.5520898328140463</v>
       </c>
       <c r="J4" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K4" t="n">
         <v>367</v>
@@ -31667,7 +31707,7 @@
         <v>-0.1766897385828903</v>
       </c>
       <c r="J5" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K5" t="n">
         <v>405</v>
@@ -31745,7 +31785,7 @@
         <v>-0.2713213536287706</v>
       </c>
       <c r="J6" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K6" t="n">
         <v>410</v>
@@ -31823,7 +31863,7 @@
         <v>-0.3112427992879263</v>
       </c>
       <c r="J7" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K7" t="n">
         <v>396</v>
@@ -31901,7 +31941,7 @@
         <v>-0.4603147693795501</v>
       </c>
       <c r="J8" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K8" t="n">
         <v>405</v>
@@ -31979,7 +32019,7 @@
         <v>-0.6555084100220696</v>
       </c>
       <c r="J9" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K9" t="n">
         <v>336</v>
@@ -32057,7 +32097,7 @@
         <v>-0.5328808479393418</v>
       </c>
       <c r="J10" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K10" t="n">
         <v>352</v>
@@ -32135,7 +32175,7 @@
         <v>-0.5193078874600908</v>
       </c>
       <c r="J11" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K11" t="n">
         <v>349</v>
@@ -32213,7 +32253,7 @@
         <v>-0.4360170701683189</v>
       </c>
       <c r="J12" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K12" t="n">
         <v>370</v>
@@ -32291,7 +32331,7 @@
         <v>-0.163637085641784</v>
       </c>
       <c r="J13" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K13" t="n">
         <v>386</v>
@@ -32366,28 +32406,28 @@
         <v>0.1433</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2391634819350674</v>
+        <v>0.2308368972631193</v>
       </c>
       <c r="J14" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K14" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01743426345880217</v>
+        <v>0.01626424750891664</v>
       </c>
       <c r="M14" t="n">
-        <v>10.68903511505191</v>
+        <v>10.71416958542004</v>
       </c>
       <c r="N14" t="n">
-        <v>182.2386922676155</v>
+        <v>182.5971115231985</v>
       </c>
       <c r="O14" t="n">
-        <v>13.49958118860046</v>
+        <v>13.5128498668193</v>
       </c>
       <c r="P14" t="n">
-        <v>263.2677262376777</v>
+        <v>263.3540626876101</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32447,7 +32487,7 @@
         <v>0.4470869161132219</v>
       </c>
       <c r="J15" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K15" t="n">
         <v>376</v>
@@ -32525,7 +32565,7 @@
         <v>0.5264398146121049</v>
       </c>
       <c r="J16" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K16" t="n">
         <v>372</v>
@@ -32603,7 +32643,7 @@
         <v>0.4591010212787388</v>
       </c>
       <c r="J17" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K17" t="n">
         <v>381</v>
@@ -32659,7 +32699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R482"/>
+  <dimension ref="A1:R483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70431,6 +70471,38 @@
         </is>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:53+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr"/>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr"/>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>-46.59673422496944,168.8120770654441</t>
+        </is>
+      </c>
+      <c r="O483" t="inlineStr"/>
+      <c r="P483" t="inlineStr"/>
+      <c r="Q483" t="inlineStr"/>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0550/nzd0550.xlsx
+++ b/data/nzd0550/nzd0550.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R483"/>
+  <dimension ref="A1:R484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26128,6 +26128,66 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:13+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>306.0784210526315</v>
+      </c>
+      <c r="C484" t="n">
+        <v>307.06</v>
+      </c>
+      <c r="D484" t="n">
+        <v>307.2784210526316</v>
+      </c>
+      <c r="E484" t="n">
+        <v>309.0361904761905</v>
+      </c>
+      <c r="F484" t="n">
+        <v>306.2261538461539</v>
+      </c>
+      <c r="G484" t="n">
+        <v>306.62</v>
+      </c>
+      <c r="H484" t="n">
+        <v>302.69</v>
+      </c>
+      <c r="I484" t="n">
+        <v>292.6361904761905</v>
+      </c>
+      <c r="J484" t="n">
+        <v>291.1966666666667</v>
+      </c>
+      <c r="K484" t="n">
+        <v>280.9491304347826</v>
+      </c>
+      <c r="L484" t="n">
+        <v>273.4442105263158</v>
+      </c>
+      <c r="M484" t="n">
+        <v>272.7891304347826</v>
+      </c>
+      <c r="N484" t="n">
+        <v>276.6309090909091</v>
+      </c>
+      <c r="O484" t="n">
+        <v>286.2261904761905</v>
+      </c>
+      <c r="P484" t="n">
+        <v>300.4466666666667</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>309.1033333333333</v>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26139,7 +26199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B515"/>
+  <dimension ref="A1:B516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31297,6 +31357,16 @@
       </c>
       <c r="B515" t="n">
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
@@ -32699,7 +32769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R483"/>
+  <dimension ref="A1:R484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70503,6 +70573,98 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-02 22:27:13+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-46.60085421999836,168.82103326466924</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-46.60055298577635,168.82024857805433</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-46.600245940315574,168.81946918253843</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-46.599950611059015,168.8186791142872</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-46.59962050857898,168.81792071590945</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-46.59931479322402,168.81714010411963</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-46.598976162118554,168.8163894710646</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-46.59859091406301,168.81568129682125</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>-46.598271238005566,168.8149133968728</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>-46.59788451279768,168.8142065665133</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>-46.59751866348503,168.81348072087272</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>-46.59720495416498,168.81270738267014</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>-46.59692547323792,168.81190286566823</t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>-46.59668978574161,168.8110584563982</t>
+        </is>
+      </c>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t>-46.59648930240726,168.81018197723822</t>
+        </is>
+      </c>
+      <c r="Q484" t="inlineStr">
+        <is>
+          <t>-46.59624646517138,168.8093440742542</t>
+        </is>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0550/nzd0550.xlsx
+++ b/data/nzd0550/nzd0550.xlsx
@@ -31540,28 +31540,28 @@
         <v>0.1413</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03172530315914598</v>
+        <v>-0.02561023343511014</v>
       </c>
       <c r="J2" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K2" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002125025562949023</v>
+        <v>0.0001389424125126659</v>
       </c>
       <c r="M2" t="n">
-        <v>12.98189988213227</v>
+        <v>12.98033751536101</v>
       </c>
       <c r="N2" t="n">
-        <v>268.757641054489</v>
+        <v>268.502170284154</v>
       </c>
       <c r="O2" t="n">
-        <v>16.3938293590756</v>
+        <v>16.38603583189522</v>
       </c>
       <c r="P2" t="n">
-        <v>293.8567235839552</v>
+        <v>293.7934442885934</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31618,28 +31618,28 @@
         <v>0.1999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2130254683308202</v>
+        <v>-0.2017711404172672</v>
       </c>
       <c r="J3" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K3" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004003905340278058</v>
+        <v>0.003604548235603411</v>
       </c>
       <c r="M3" t="n">
-        <v>20.47929051982211</v>
+        <v>20.4759792933259</v>
       </c>
       <c r="N3" t="n">
-        <v>605.4448496328099</v>
+        <v>605.1029703171888</v>
       </c>
       <c r="O3" t="n">
-        <v>24.60578894554714</v>
+        <v>24.59884083279513</v>
       </c>
       <c r="P3" t="n">
-        <v>290.6645993800408</v>
+        <v>290.543466916708</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31696,28 +31696,28 @@
         <v>0.1725</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5520898328140463</v>
+        <v>-0.5420544837788688</v>
       </c>
       <c r="J4" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K4" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03171685133372626</v>
+        <v>0.03071344620928973</v>
       </c>
       <c r="M4" t="n">
-        <v>15.87032558104157</v>
+        <v>15.8577584853763</v>
       </c>
       <c r="N4" t="n">
-        <v>514.9160152924085</v>
+        <v>514.5332427471512</v>
       </c>
       <c r="O4" t="n">
-        <v>22.69176095617986</v>
+        <v>22.68332521362667</v>
       </c>
       <c r="P4" t="n">
-        <v>302.3313973589174</v>
+        <v>302.2269862256837</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31774,28 +31774,28 @@
         <v>0.1486</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1766897385828903</v>
+        <v>-0.1718271482124447</v>
       </c>
       <c r="J5" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K5" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01408138805324632</v>
+        <v>0.01336386618184859</v>
       </c>
       <c r="M5" t="n">
-        <v>8.836915914572071</v>
+        <v>8.837892107427932</v>
       </c>
       <c r="N5" t="n">
-        <v>124.7940513285919</v>
+        <v>124.7584795952866</v>
       </c>
       <c r="O5" t="n">
-        <v>11.17112578608763</v>
+        <v>11.16953354421243</v>
       </c>
       <c r="P5" t="n">
-        <v>303.1241328898548</v>
+        <v>303.074740581178</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31852,28 +31852,28 @@
         <v>0.179</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2713213536287706</v>
+        <v>-0.266732556444443</v>
       </c>
       <c r="J6" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K6" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04050518266835601</v>
+        <v>0.03928483460896204</v>
       </c>
       <c r="M6" t="n">
-        <v>7.786139867469632</v>
+        <v>7.78963478985543</v>
       </c>
       <c r="N6" t="n">
-        <v>99.66158823255518</v>
+        <v>99.67080618256084</v>
       </c>
       <c r="O6" t="n">
-        <v>9.983065072038507</v>
+        <v>9.983526740714467</v>
       </c>
       <c r="P6" t="n">
-        <v>303.1310076771313</v>
+        <v>303.0841175611504</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31930,28 +31930,28 @@
         <v>0.1186</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3112427992879263</v>
+        <v>-0.3056461747275412</v>
       </c>
       <c r="J7" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K7" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06356796781991114</v>
+        <v>0.06147171452261946</v>
       </c>
       <c r="M7" t="n">
-        <v>7.273044111918663</v>
+        <v>7.282243918668036</v>
       </c>
       <c r="N7" t="n">
-        <v>81.68934381424225</v>
+        <v>81.84551178086713</v>
       </c>
       <c r="O7" t="n">
-        <v>9.038215742846718</v>
+        <v>9.046850931725753</v>
       </c>
       <c r="P7" t="n">
-        <v>302.7473214873898</v>
+        <v>302.6902188110805</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32008,28 +32008,28 @@
         <v>0.1214</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4603147693795501</v>
+        <v>-0.4542958942679013</v>
       </c>
       <c r="J8" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K8" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08846796013442948</v>
+        <v>0.08649498840324299</v>
       </c>
       <c r="M8" t="n">
-        <v>8.431264791601555</v>
+        <v>8.437248866417905</v>
       </c>
       <c r="N8" t="n">
-        <v>123.723644035325</v>
+        <v>123.8330385555826</v>
       </c>
       <c r="O8" t="n">
-        <v>11.12311305504556</v>
+        <v>11.1280294102587</v>
       </c>
       <c r="P8" t="n">
-        <v>301.7420998050608</v>
+        <v>301.6805745057733</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32086,28 +32086,28 @@
         <v>0.1569</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6555084100220696</v>
+        <v>-0.6430544737468233</v>
       </c>
       <c r="J9" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K9" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03876784722697724</v>
+        <v>0.03747006438675948</v>
       </c>
       <c r="M9" t="n">
-        <v>17.43810664413719</v>
+        <v>17.42882245504824</v>
       </c>
       <c r="N9" t="n">
-        <v>573.2867647747044</v>
+        <v>573.0813662159106</v>
       </c>
       <c r="O9" t="n">
-        <v>23.94340754309428</v>
+        <v>23.93911790805815</v>
       </c>
       <c r="P9" t="n">
-        <v>287.2726545760527</v>
+        <v>287.1381467765498</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32164,28 +32164,28 @@
         <v>0.1096</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5328808479393418</v>
+        <v>-0.5171164194451132</v>
       </c>
       <c r="J10" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K10" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02506256782812366</v>
+        <v>0.02365469365654316</v>
       </c>
       <c r="M10" t="n">
-        <v>19.01766959656136</v>
+        <v>19.0293551941996</v>
       </c>
       <c r="N10" t="n">
-        <v>597.6849417066661</v>
+        <v>598.5958185943178</v>
       </c>
       <c r="O10" t="n">
-        <v>24.44759582672018</v>
+        <v>24.46621790539596</v>
       </c>
       <c r="P10" t="n">
-        <v>274.7258729647622</v>
+        <v>274.5551409356643</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32242,28 +32242,28 @@
         <v>0.1907</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5193078874600908</v>
+        <v>-0.508977146365923</v>
       </c>
       <c r="J11" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K11" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02506833065731295</v>
+        <v>0.02417861138968003</v>
       </c>
       <c r="M11" t="n">
-        <v>17.79402482841883</v>
+        <v>17.77872810051579</v>
       </c>
       <c r="N11" t="n">
-        <v>571.9037660535878</v>
+        <v>571.404584974517</v>
       </c>
       <c r="O11" t="n">
-        <v>23.9145095298563</v>
+        <v>23.90407046874061</v>
       </c>
       <c r="P11" t="n">
-        <v>274.5533537540654</v>
+        <v>274.4417285709705</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32320,28 +32320,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4360170701683189</v>
+        <v>-0.4320276337110562</v>
       </c>
       <c r="J12" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K12" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03144042567306149</v>
+        <v>0.03102943721388829</v>
       </c>
       <c r="M12" t="n">
-        <v>12.42860108574184</v>
+        <v>12.40991204524681</v>
       </c>
       <c r="N12" t="n">
-        <v>327.0294776766748</v>
+        <v>326.3152335025981</v>
       </c>
       <c r="O12" t="n">
-        <v>18.08395636127987</v>
+        <v>18.06419756043977</v>
       </c>
       <c r="P12" t="n">
-        <v>276.9658840770232</v>
+        <v>276.9244184852654</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32398,28 +32398,28 @@
         <v>0.1589</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.163637085641784</v>
+        <v>-0.1603420976749778</v>
       </c>
       <c r="J13" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K13" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007090265298337561</v>
+        <v>0.006839085715115378</v>
       </c>
       <c r="M13" t="n">
-        <v>10.7613696696857</v>
+        <v>10.74907545242162</v>
       </c>
       <c r="N13" t="n">
-        <v>210.6723702466708</v>
+        <v>210.2512655380167</v>
       </c>
       <c r="O13" t="n">
-        <v>14.51455718396778</v>
+        <v>14.50004363917629</v>
       </c>
       <c r="P13" t="n">
-        <v>270.1459233436362</v>
+        <v>270.1115890307365</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32476,28 +32476,28 @@
         <v>0.1433</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2308368972631193</v>
+        <v>0.2341804548437051</v>
       </c>
       <c r="J14" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K14" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01626424750891664</v>
+        <v>0.01679763800432255</v>
       </c>
       <c r="M14" t="n">
-        <v>10.71416958542004</v>
+        <v>10.70249255351569</v>
       </c>
       <c r="N14" t="n">
-        <v>182.5971115231985</v>
+        <v>182.2626579738517</v>
       </c>
       <c r="O14" t="n">
-        <v>13.5128498668193</v>
+        <v>13.5004688057064</v>
       </c>
       <c r="P14" t="n">
-        <v>263.3540626876101</v>
+        <v>263.3192412964026</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32554,28 +32554,28 @@
         <v>0.1312</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4470869161132219</v>
+        <v>0.4525836685657225</v>
       </c>
       <c r="J15" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K15" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06206712292944028</v>
+        <v>0.06368050885292353</v>
       </c>
       <c r="M15" t="n">
-        <v>10.47737665197749</v>
+        <v>10.47878354764081</v>
       </c>
       <c r="N15" t="n">
-        <v>172.0473297043067</v>
+        <v>171.937669047569</v>
       </c>
       <c r="O15" t="n">
-        <v>13.116681352549</v>
+        <v>13.11250048799118</v>
       </c>
       <c r="P15" t="n">
-        <v>263.0295663920299</v>
+        <v>262.9725746710386</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32632,28 +32632,28 @@
         <v>0.0907</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5264398146121049</v>
+        <v>0.5320413133585017</v>
       </c>
       <c r="J16" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K16" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07264223247791723</v>
+        <v>0.07431600649648407</v>
       </c>
       <c r="M16" t="n">
-        <v>11.0429487675379</v>
+        <v>11.03864448562511</v>
       </c>
       <c r="N16" t="n">
-        <v>201.0885107856964</v>
+        <v>200.8959904212068</v>
       </c>
       <c r="O16" t="n">
-        <v>14.18056806992218</v>
+        <v>14.17377826908573</v>
       </c>
       <c r="P16" t="n">
-        <v>275.2314239528398</v>
+        <v>275.1736024507237</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -32710,28 +32710,28 @@
         <v>0.0698</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4591010212787388</v>
+        <v>0.465206824246934</v>
       </c>
       <c r="J17" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K17" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06057034403095718</v>
+        <v>0.06225522198055278</v>
       </c>
       <c r="M17" t="n">
-        <v>10.77549084676779</v>
+        <v>10.77697238707225</v>
       </c>
       <c r="N17" t="n">
-        <v>187.1987219210126</v>
+        <v>187.1302269829394</v>
       </c>
       <c r="O17" t="n">
-        <v>13.68205839488389</v>
+        <v>13.6795550725504</v>
       </c>
       <c r="P17" t="n">
-        <v>284.3292776441646</v>
+        <v>284.2667368688963</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">

--- a/data/nzd0550/nzd0550.xlsx
+++ b/data/nzd0550/nzd0550.xlsx
@@ -31531,13 +31531,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.095</v>
+        <v>0.13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0741</v>
+        <v>0.1017</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1413</v>
+        <v>0.1905</v>
       </c>
       <c r="I2" t="n">
         <v>-0.02558621966857526</v>
@@ -31609,13 +31609,13 @@
         <v>0.9333333333336408</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0646</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1999</v>
+        <v>0.1186</v>
       </c>
       <c r="I3" t="n">
         <v>-0.2017711404172671</v>
@@ -31687,13 +31687,13 @@
         <v>0.8666666666672816</v>
       </c>
       <c r="F4" t="n">
-        <v>0.095</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0679</v>
+        <v>0.0597</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1725</v>
+        <v>0.148</v>
       </c>
       <c r="I4" t="n">
         <v>-0.5420352418018867</v>
@@ -31765,13 +31765,13 @@
         <v>0.8000000000009224</v>
       </c>
       <c r="F5" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0834</v>
+        <v>0.1178</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1486</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1718293789294456</v>
@@ -31843,13 +31843,13 @@
         <v>0.7333333333342527</v>
       </c>
       <c r="F6" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1024</v>
+        <v>0.1587</v>
       </c>
       <c r="H6" t="n">
-        <v>0.179</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2667088429633329</v>
@@ -31921,13 +31921,13 @@
         <v>0.6666666666678934</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08550000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1186</v>
+        <v>0.1355</v>
       </c>
       <c r="I7" t="n">
         <v>-0.3056461747275414</v>
@@ -31999,13 +31999,13 @@
         <v>0.6000000000015342</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0866</v>
+        <v>0.0736</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1214</v>
+        <v>0.1725</v>
       </c>
       <c r="I8" t="n">
         <v>-0.4542958942679013</v>
@@ -32077,13 +32077,13 @@
         <v>0.533333333335175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.105</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0785</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1569</v>
+        <v>0.1116</v>
       </c>
       <c r="I9" t="n">
         <v>-0.6430487322763694</v>
@@ -32155,13 +32155,13 @@
         <v>0.4666666666669757</v>
       </c>
       <c r="F10" t="n">
-        <v>0.075</v>
+        <v>0.125</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0582</v>
+        <v>0.0941</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1096</v>
+        <v>0.1961</v>
       </c>
       <c r="I10" t="n">
         <v>-0.517109237193243</v>
@@ -32233,13 +32233,13 @@
         <v>0.4000000000003059</v>
       </c>
       <c r="F11" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0835</v>
+        <v>0.0878</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1907</v>
+        <v>0.184</v>
       </c>
       <c r="I11" t="n">
         <v>-0.5089652410308099</v>
@@ -32311,10 +32311,10 @@
         <v>0.3333333333339467</v>
       </c>
       <c r="F12" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1099</v>
+        <v>0.066</v>
       </c>
       <c r="H12" t="n">
         <v>0.2</v>
@@ -32389,13 +32389,13 @@
         <v>0.2666666666675875</v>
       </c>
       <c r="F13" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="G13" t="n">
-        <v>0.093</v>
+        <v>0.0801</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1589</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1603153183896748</v>
@@ -32467,13 +32467,13 @@
         <v>0.2000000000012283</v>
       </c>
       <c r="F14" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0868</v>
+        <v>0.097</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1433</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
         <v>0.2341228682468995</v>
@@ -32545,13 +32545,13 @@
         <v>0.133333333334869</v>
       </c>
       <c r="F15" t="n">
-        <v>0.105</v>
+        <v>0.17</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0847</v>
+        <v>0.1089</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1312</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
         <v>0.4525813479692923</v>
@@ -32623,13 +32623,13 @@
         <v>0.06666666666635922</v>
       </c>
       <c r="F16" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0641</v>
+        <v>0.0772</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0907</v>
+        <v>0.1401</v>
       </c>
       <c r="I16" t="n">
         <v>0.5320361509764069</v>
@@ -32701,13 +32701,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0545</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0698</v>
+        <v>0.1391</v>
       </c>
       <c r="I17" t="n">
         <v>0.4652139086126065</v>
